--- a/documents/trial_balances/HazTrain TB.2023 by month GENAESIS Confidential.xlsx
+++ b/documents/trial_balances/HazTrain TB.2023 by month GENAESIS Confidential.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\tsclient\C\Users\Owner\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Finance-Model\documents\trial_balances\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673E947B-D1C2-412E-AAC6-24D25BE66ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7635" windowHeight="2670" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="-32740" yWindow="580" windowWidth="31760" windowHeight="19350" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jan 2023 Trial Balance" sheetId="1" r:id="rId1"/>
@@ -17,6 +18,7 @@
     <sheet name="Mar. 2023 Trial Balance" sheetId="3" r:id="rId3"/>
     <sheet name="April 2023 Trial Balance" sheetId="4" r:id="rId4"/>
     <sheet name="May 2023 Trial Balance" sheetId="5" r:id="rId5"/>
+    <sheet name="June 2023 Trial Balance" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'April 2023 Trial Balance'!$1:$1</definedName>
@@ -25,17 +27,28 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'Mar. 2023 Trial Balance'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'May 2023 Trial Balance'!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="166">
   <si>
     <t>Account ID</t>
   </si>
@@ -515,12 +528,30 @@
   </si>
   <si>
     <t>Personal Property Taxes</t>
+  </si>
+  <si>
+    <t>27100</t>
+  </si>
+  <si>
+    <t>Distributions</t>
+  </si>
+  <si>
+    <t>52000</t>
+  </si>
+  <si>
+    <t>Workmans Compensation</t>
+  </si>
+  <si>
+    <t>91000</t>
+  </si>
+  <si>
+    <t>Interest Expense</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00;\-#,##0.00;* ??"/>
   </numFmts>
@@ -911,20 +942,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="2" customWidth="1"/>
-    <col min="3" max="4" width="11.7109375" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.7265625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="11.7265625" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -938,7 +969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -949,7 +980,7 @@
         <v>737289.83</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -960,7 +991,7 @@
         <v>1207.69</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -971,7 +1002,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -982,7 +1013,7 @@
         <v>1082932.01</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -993,7 +1024,7 @@
         <v>13100</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1004,7 +1035,7 @@
         <v>111809.7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1015,7 +1046,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -1026,7 +1057,7 @@
         <v>253111.15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -1037,7 +1068,7 @@
         <v>330403.46000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -1048,7 +1079,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -1059,7 +1090,7 @@
         <v>153340.12</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -1070,7 +1101,7 @@
         <v>111276.41</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -1081,7 +1112,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
@@ -1092,7 +1123,7 @@
         <v>958.76</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>32</v>
       </c>
@@ -1103,7 +1134,7 @@
         <v>90537.89</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
@@ -1114,7 +1145,7 @@
         <v>25701.71</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
@@ -1125,7 +1156,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -1136,7 +1167,7 @@
         <v>162907.1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -1147,7 +1178,7 @@
         <v>1369607.08</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>42</v>
       </c>
@@ -1158,7 +1189,7 @@
         <v>123200.91</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>44</v>
       </c>
@@ -1169,7 +1200,7 @@
         <v>122179.65</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>46</v>
       </c>
@@ -1180,7 +1211,7 @@
         <v>5432.72</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
@@ -1191,7 +1222,7 @@
         <v>18160.13</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>50</v>
       </c>
@@ -1202,7 +1233,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>52</v>
       </c>
@@ -1213,7 +1244,7 @@
         <v>221277.59</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>54</v>
       </c>
@@ -1224,7 +1255,7 @@
         <v>283319.92</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>56</v>
       </c>
@@ -1235,7 +1266,7 @@
         <v>1393.48</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>58</v>
       </c>
@@ -1246,7 +1277,7 @@
         <v>190332.11</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>60</v>
       </c>
@@ -1257,7 +1288,7 @@
         <v>189448.26</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>62</v>
       </c>
@@ -1268,7 +1299,7 @@
         <v>27946.28</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>64</v>
       </c>
@@ -1279,7 +1310,7 @@
         <v>30893.06</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>66</v>
       </c>
@@ -1290,7 +1321,7 @@
         <v>105173.44</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>68</v>
       </c>
@@ -1301,7 +1332,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>70</v>
       </c>
@@ -1312,7 +1343,7 @@
         <v>16661.349999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>72</v>
       </c>
@@ -1323,7 +1354,7 @@
         <v>2988.14</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>74</v>
       </c>
@@ -1334,7 +1365,7 @@
         <v>7989.39</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>76</v>
       </c>
@@ -1345,7 +1376,7 @@
         <v>24275.42</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>78</v>
       </c>
@@ -1356,7 +1387,7 @@
         <v>15742.64</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>80</v>
       </c>
@@ -1367,7 +1398,7 @@
         <v>19793.68</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>82</v>
       </c>
@@ -1378,7 +1409,7 @@
         <v>1507.26</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>84</v>
       </c>
@@ -1389,7 +1420,7 @@
         <v>22515.02</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>86</v>
       </c>
@@ -1400,7 +1431,7 @@
         <v>1671.41</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>88</v>
       </c>
@@ -1411,7 +1442,7 @@
         <v>9594.2099999999991</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>90</v>
       </c>
@@ -1422,7 +1453,7 @@
         <v>18.87</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>92</v>
       </c>
@@ -1433,7 +1464,7 @@
         <v>2277.33</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>94</v>
       </c>
@@ -1444,7 +1475,7 @@
         <v>893.76</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>96</v>
       </c>
@@ -1455,7 +1486,7 @@
         <v>297.85000000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>98</v>
       </c>
@@ -1466,7 +1497,7 @@
         <v>2535.1799999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>100</v>
       </c>
@@ -1477,7 +1508,7 @@
         <v>18526.25</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>102</v>
       </c>
@@ -1488,7 +1519,7 @@
         <v>776.64</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>104</v>
       </c>
@@ -1499,7 +1530,7 @@
         <v>300.11</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>106</v>
       </c>
@@ -1510,7 +1541,7 @@
         <v>1238.8800000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>108</v>
       </c>
@@ -1521,7 +1552,7 @@
         <v>2222.35</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>110</v>
       </c>
@@ -1532,7 +1563,7 @@
         <v>2362.9</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>112</v>
       </c>
@@ -1543,7 +1574,7 @@
         <v>242.19</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>114</v>
       </c>
@@ -1554,7 +1585,7 @@
         <v>19562.75</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>116</v>
       </c>
@@ -1565,7 +1596,7 @@
         <v>1352.18</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>118</v>
       </c>
@@ -1576,7 +1607,7 @@
         <v>645.55999999999995</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>120</v>
       </c>
@@ -1587,7 +1618,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>122</v>
       </c>
@@ -1598,7 +1629,7 @@
         <v>5507.1</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>124</v>
       </c>
@@ -1609,7 +1640,7 @@
         <v>8910.18</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>126</v>
       </c>
@@ -1620,7 +1651,7 @@
         <v>25250</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>128</v>
       </c>
@@ -1631,7 +1662,7 @@
         <v>6934.73</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>130</v>
       </c>
@@ -1642,7 +1673,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>132</v>
       </c>
@@ -1653,7 +1684,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>134</v>
       </c>
@@ -1664,7 +1695,7 @@
         <v>1144.22</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>136</v>
       </c>
@@ -1675,11 +1706,11 @@
         <v>714.85</v>
       </c>
     </row>
-    <row r="69" spans="1:4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
     </row>
-    <row r="70" spans="1:4" s="4" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" s="4" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>138</v>
       </c>
@@ -1695,7 +1726,7 @@
         <v>3027721.93</v>
       </c>
     </row>
-    <row r="71" spans="1:4" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="12"/>
@@ -1716,20 +1747,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="2" customWidth="1"/>
-    <col min="3" max="4" width="11.7109375" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.7265625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="11.7265625" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1743,7 +1774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1754,7 +1785,7 @@
         <v>1238993.67</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1765,7 +1796,7 @@
         <v>1817.49</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1776,7 +1807,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1787,7 +1818,7 @@
         <v>964546.39</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1798,7 +1829,7 @@
         <v>13100</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1809,7 +1840,7 @@
         <v>111809.7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1820,7 +1851,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -1831,7 +1862,7 @@
         <v>253111.15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -1842,7 +1873,7 @@
         <v>330645.65000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -1853,7 +1884,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -1864,7 +1895,7 @@
         <v>255603.89</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -1875,7 +1906,7 @@
         <v>199225.87</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -1886,7 +1917,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
@@ -1897,7 +1928,7 @@
         <v>479.38</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>32</v>
       </c>
@@ -1908,7 +1939,7 @@
         <v>88093.68</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
@@ -1919,7 +1950,7 @@
         <v>25701.71</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
@@ -1930,7 +1961,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -1941,7 +1972,7 @@
         <v>162907.1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -1952,7 +1983,7 @@
         <v>1369607.08</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>42</v>
       </c>
@@ -1963,7 +1994,7 @@
         <v>295137.01</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>44</v>
       </c>
@@ -1974,7 +2005,7 @@
         <v>238918.64</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>46</v>
       </c>
@@ -1985,7 +2016,7 @@
         <v>22622.58</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
@@ -1996,7 +2027,7 @@
         <v>53201.23</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>50</v>
       </c>
@@ -2007,7 +2038,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>52</v>
       </c>
@@ -2018,7 +2049,7 @@
         <v>573853.88</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>54</v>
       </c>
@@ -2029,7 +2060,7 @@
         <v>515995.37</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>56</v>
       </c>
@@ -2040,7 +2071,7 @@
         <v>2805.82</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>58</v>
       </c>
@@ -2051,7 +2082,7 @@
         <v>416098.37</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>60</v>
       </c>
@@ -2062,7 +2093,7 @@
         <v>435227.13</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>62</v>
       </c>
@@ -2073,7 +2104,7 @@
         <v>40958.31</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>64</v>
       </c>
@@ -2084,7 +2115,7 @@
         <v>37280</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>66</v>
       </c>
@@ -2095,7 +2126,7 @@
         <v>161605.21</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>68</v>
       </c>
@@ -2106,7 +2137,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>70</v>
       </c>
@@ -2117,7 +2148,7 @@
         <v>29515.75</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>72</v>
       </c>
@@ -2128,7 +2159,7 @@
         <v>4609.6899999999996</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>74</v>
       </c>
@@ -2139,7 +2170,7 @@
         <v>16424.48</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>76</v>
       </c>
@@ -2150,7 +2181,7 @@
         <v>32818.92</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>78</v>
       </c>
@@ -2161,7 +2192,7 @@
         <v>27270</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>80</v>
       </c>
@@ -2172,7 +2203,7 @@
         <v>41478.46</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>82</v>
       </c>
@@ -2183,7 +2214,7 @@
         <v>3014.52</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>84</v>
       </c>
@@ -2194,7 +2225,7 @@
         <v>46646.38</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>86</v>
       </c>
@@ -2205,7 +2236,7 @@
         <v>2255.83</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>88</v>
       </c>
@@ -2216,7 +2247,7 @@
         <v>14836.66</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>90</v>
       </c>
@@ -2227,7 +2258,7 @@
         <v>25.56</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>92</v>
       </c>
@@ -2238,7 +2269,7 @@
         <v>2277.33</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>94</v>
       </c>
@@ -2249,7 +2280,7 @@
         <v>1334.24</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>96</v>
       </c>
@@ -2260,7 +2291,7 @@
         <v>297.85000000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>98</v>
       </c>
@@ -2271,7 +2302,7 @@
         <v>2535.1799999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>100</v>
       </c>
@@ -2282,7 +2313,7 @@
         <v>18526.25</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>102</v>
       </c>
@@ -2293,7 +2324,7 @@
         <v>1122.1600000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>104</v>
       </c>
@@ -2304,7 +2335,7 @@
         <v>2264.8000000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>106</v>
       </c>
@@ -2315,7 +2346,7 @@
         <v>2316.8200000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>108</v>
       </c>
@@ -2326,7 +2357,7 @@
         <v>4079.21</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>110</v>
       </c>
@@ -2337,7 +2368,7 @@
         <v>3560.06</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>112</v>
       </c>
@@ -2348,7 +2379,7 @@
         <v>484.38</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>114</v>
       </c>
@@ -2359,7 +2390,7 @@
         <v>41254.85</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>116</v>
       </c>
@@ -2370,7 +2401,7 @@
         <v>2812.53</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>118</v>
       </c>
@@ -2381,7 +2412,7 @@
         <v>1090.06</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>120</v>
       </c>
@@ -2392,7 +2423,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>122</v>
       </c>
@@ -2403,7 +2434,7 @@
         <v>5507.1</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>124</v>
       </c>
@@ -2414,7 +2445,7 @@
         <v>13324.34</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>126</v>
       </c>
@@ -2425,7 +2456,7 @@
         <v>50500</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>128</v>
       </c>
@@ -2436,7 +2467,7 @@
         <v>15447.35</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>140</v>
       </c>
@@ -2447,7 +2478,7 @@
         <v>3817.5</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>130</v>
       </c>
@@ -2458,7 +2489,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>132</v>
       </c>
@@ -2469,7 +2500,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>134</v>
       </c>
@@ -2480,7 +2511,7 @@
         <v>2520.0500000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>136</v>
       </c>
@@ -2491,7 +2522,7 @@
         <v>1159.8499999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>142</v>
       </c>
@@ -2502,7 +2533,7 @@
         <v>857.01</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>144</v>
       </c>
@@ -2513,11 +2544,11 @@
         <v>14.66</v>
       </c>
     </row>
-    <row r="72" spans="1:4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
     </row>
-    <row r="73" spans="1:4" s="4" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" s="4" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>138</v>
       </c>
@@ -2533,7 +2564,7 @@
         <v>4146870.0700000003</v>
       </c>
     </row>
-    <row r="74" spans="1:4" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="12"/>
@@ -2554,20 +2585,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="2" customWidth="1"/>
-    <col min="3" max="4" width="11.7109375" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.7265625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="11.7265625" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2581,7 +2612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2592,7 +2623,7 @@
         <v>1089580.81</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2603,7 +2634,7 @@
         <v>1833.92</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -2614,7 +2645,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -2625,7 +2656,7 @@
         <v>1231335.82</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -2636,7 +2667,7 @@
         <v>13100</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -2647,7 +2678,7 @@
         <v>111809.7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -2658,7 +2689,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -2669,7 +2700,7 @@
         <v>253111.15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -2680,7 +2711,7 @@
         <v>330887.84000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -2691,7 +2722,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -2702,7 +2733,7 @@
         <v>259894.28</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -2713,7 +2744,7 @@
         <v>89967.84</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -2724,7 +2755,7 @@
         <v>13500</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
@@ -2735,7 +2766,7 @@
         <v>94131.34</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
@@ -2746,7 +2777,7 @@
         <v>25701.71</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>36</v>
       </c>
@@ -2757,7 +2788,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>38</v>
       </c>
@@ -2768,7 +2799,7 @@
         <v>162907.1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
@@ -2779,7 +2810,7 @@
         <v>1369607.08</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>42</v>
       </c>
@@ -2790,7 +2821,7 @@
         <v>488937.21</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>44</v>
       </c>
@@ -2801,7 +2832,7 @@
         <v>355657.63</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>46</v>
       </c>
@@ -2812,7 +2843,7 @@
         <v>53389.56</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>48</v>
       </c>
@@ -2823,7 +2854,7 @@
         <v>80532.45</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>50</v>
       </c>
@@ -2834,7 +2865,7 @@
         <v>3020</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>52</v>
       </c>
@@ -2845,7 +2876,7 @@
         <v>793625.38</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>54</v>
       </c>
@@ -2856,7 +2887,7 @@
         <v>770830.25</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>56</v>
       </c>
@@ -2867,7 +2898,7 @@
         <v>4969.96</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>146</v>
       </c>
@@ -2878,7 +2909,7 @@
         <v>3331.3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>58</v>
       </c>
@@ -2889,7 +2920,7 @@
         <v>620842.56000000006</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>60</v>
       </c>
@@ -2900,7 +2931,7 @@
         <v>599469.11</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>62</v>
       </c>
@@ -2911,7 +2942,7 @@
         <v>59814.58</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>64</v>
       </c>
@@ -2922,7 +2953,7 @@
         <v>77237.39</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>66</v>
       </c>
@@ -2933,7 +2964,7 @@
         <v>235340.11</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>68</v>
       </c>
@@ -2944,7 +2975,7 @@
         <v>13500</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>70</v>
       </c>
@@ -2955,7 +2986,7 @@
         <v>46345.87</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>72</v>
       </c>
@@ -2966,7 +2997,7 @@
         <v>7193.66</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>74</v>
       </c>
@@ -2977,7 +3008,7 @@
         <v>24342.84</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>76</v>
       </c>
@@ -2988,7 +3019,7 @@
         <v>45343.93</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>78</v>
       </c>
@@ -2999,7 +3030,7 @@
         <v>41885.78</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>80</v>
       </c>
@@ -3010,7 +3041,7 @@
         <v>60187.25</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>82</v>
       </c>
@@ -3021,7 +3052,7 @@
         <v>4521.78</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>84</v>
       </c>
@@ -3032,7 +3063,7 @@
         <v>68789.17</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>86</v>
       </c>
@@ -3043,7 +3074,7 @@
         <v>2267.94</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>88</v>
       </c>
@@ -3054,7 +3085,7 @@
         <v>14290.89</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>90</v>
       </c>
@@ -3065,7 +3096,7 @@
         <v>6.72</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>148</v>
       </c>
@@ -3076,7 +3107,7 @@
         <v>1244.8</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>92</v>
       </c>
@@ -3087,7 +3118,7 @@
         <v>2277.33</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>94</v>
       </c>
@@ -3098,7 +3129,7 @@
         <v>1821.07</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>96</v>
       </c>
@@ -3109,7 +3140,7 @@
         <v>297.85000000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>98</v>
       </c>
@@ -3120,7 +3151,7 @@
         <v>2535.1799999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>100</v>
       </c>
@@ -3131,7 +3162,7 @@
         <v>18526.25</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>102</v>
       </c>
@@ -3142,7 +3173,7 @@
         <v>1155.45</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>104</v>
       </c>
@@ -3153,7 +3184,7 @@
         <v>6193.36</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>106</v>
       </c>
@@ -3164,7 +3195,7 @@
         <v>3034.12</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>108</v>
       </c>
@@ -3175,7 +3206,7 @@
         <v>5935.11</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>150</v>
       </c>
@@ -3186,7 +3217,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>110</v>
       </c>
@@ -3197,7 +3228,7 @@
         <v>4572.3500000000004</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>112</v>
       </c>
@@ -3208,7 +3239,7 @@
         <v>726.57</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>114</v>
       </c>
@@ -3219,7 +3250,7 @@
         <v>61454.99</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>116</v>
       </c>
@@ -3230,7 +3261,7 @@
         <v>3790.85</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>118</v>
       </c>
@@ -3241,7 +3272,7 @@
         <v>1288.71</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>120</v>
       </c>
@@ -3252,7 +3283,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>122</v>
       </c>
@@ -3263,7 +3294,7 @@
         <v>5751.68</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>152</v>
       </c>
@@ -3274,7 +3305,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>124</v>
       </c>
@@ -3285,7 +3316,7 @@
         <v>26185.5</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>126</v>
       </c>
@@ -3296,7 +3327,7 @@
         <v>75750</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>128</v>
       </c>
@@ -3307,7 +3338,7 @@
         <v>23017.74</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>140</v>
       </c>
@@ -3318,7 +3349,7 @@
         <v>3817.5</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>130</v>
       </c>
@@ -3329,7 +3360,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>132</v>
       </c>
@@ -3340,7 +3371,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>134</v>
       </c>
@@ -3351,7 +3382,7 @@
         <v>4015.54</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>136</v>
       </c>
@@ -3362,7 +3393,7 @@
         <v>1279.8499999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>154</v>
       </c>
@@ -3373,7 +3404,7 @@
         <v>54990</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>142</v>
       </c>
@@ -3384,7 +3415,7 @@
         <v>857.01</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>144</v>
       </c>
@@ -3395,11 +3426,11 @@
         <v>672.58</v>
       </c>
     </row>
-    <row r="76" spans="1:4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
     </row>
-    <row r="77" spans="1:4" s="4" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" s="4" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>138</v>
       </c>
@@ -3415,7 +3446,7 @@
         <v>4956887.6499999994</v>
       </c>
     </row>
-    <row r="78" spans="1:4" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="12"/>
@@ -3436,20 +3467,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="2" customWidth="1"/>
-    <col min="3" max="4" width="11.7109375" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.7265625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="11.7265625" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3463,7 +3494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -3474,7 +3505,7 @@
         <v>1367670.96</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3485,7 +3516,7 @@
         <v>2953.41</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -3496,7 +3527,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -3507,7 +3538,7 @@
         <v>1349454.86</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -3518,7 +3549,7 @@
         <v>13100</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -3529,7 +3560,7 @@
         <v>111809.7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -3540,7 +3571,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -3551,7 +3582,7 @@
         <v>253111.15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -3562,7 +3593,7 @@
         <v>331130.03000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -3573,7 +3604,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -3584,7 +3615,7 @@
         <v>445472.57</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -3595,7 +3626,7 @@
         <v>171868.34</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -3606,7 +3637,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
@@ -3617,7 +3648,7 @@
         <v>88947.04</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
@@ -3628,7 +3659,7 @@
         <v>25701.71</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>36</v>
       </c>
@@ -3639,7 +3670,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>38</v>
       </c>
@@ -3650,7 +3681,7 @@
         <v>162907.1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
@@ -3661,7 +3692,7 @@
         <v>1369607.08</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>42</v>
       </c>
@@ -3672,7 +3703,7 @@
         <v>653429.03</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>44</v>
       </c>
@@ -3683,7 +3714,7 @@
         <v>472396.62</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>46</v>
       </c>
@@ -3694,7 +3725,7 @@
         <v>77239.17</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>48</v>
       </c>
@@ -3705,7 +3736,7 @@
         <v>116288.71</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>50</v>
       </c>
@@ -3716,7 +3747,7 @@
         <v>7270</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>52</v>
       </c>
@@ -3727,7 +3758,7 @@
         <v>1163156.3500000001</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>54</v>
       </c>
@@ -3738,7 +3769,7 @@
         <v>1050426.44</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>56</v>
       </c>
@@ -3749,7 +3780,7 @@
         <v>6953.77</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>146</v>
       </c>
@@ -3760,7 +3791,7 @@
         <v>3331.3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>156</v>
       </c>
@@ -3771,7 +3802,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
@@ -3782,7 +3813,7 @@
         <v>842080.43</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>60</v>
       </c>
@@ -3793,7 +3824,7 @@
         <v>903276.86</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
@@ -3804,7 +3835,7 @@
         <v>100920.43</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>64</v>
       </c>
@@ -3815,7 +3846,7 @@
         <v>92232.1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
@@ -3826,7 +3857,7 @@
         <v>370190.96</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>68</v>
       </c>
@@ -3837,7 +3868,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>70</v>
       </c>
@@ -3848,7 +3879,7 @@
         <v>58461.39</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>72</v>
       </c>
@@ -3859,7 +3890,7 @@
         <v>10177.41</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>74</v>
       </c>
@@ -3870,7 +3901,7 @@
         <v>32524.18</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>76</v>
       </c>
@@ -3881,7 +3912,7 @@
         <v>45343.93</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>78</v>
       </c>
@@ -3892,7 +3923,7 @@
         <v>57143.6</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>80</v>
       </c>
@@ -3903,7 +3934,7 @@
         <v>80007.929999999993</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>82</v>
       </c>
@@ -3914,7 +3945,7 @@
         <v>5932.71</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>84</v>
       </c>
@@ -3925,7 +3956,7 @@
         <v>92005.34</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>86</v>
       </c>
@@ -3936,7 +3967,7 @@
         <v>2267.94</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>88</v>
       </c>
@@ -3947,7 +3978,7 @@
         <v>3089.61</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>90</v>
       </c>
@@ -3958,7 +3989,7 @@
         <v>12.12</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>148</v>
       </c>
@@ -3969,7 +4000,7 @@
         <v>2159.86</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>92</v>
       </c>
@@ -3980,7 +4011,7 @@
         <v>2277.33</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>94</v>
       </c>
@@ -3991,7 +4022,7 @@
         <v>2292.44</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>96</v>
       </c>
@@ -4002,7 +4033,7 @@
         <v>472.82</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>98</v>
       </c>
@@ -4013,7 +4044,7 @@
         <v>12499.27</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>100</v>
       </c>
@@ -4024,7 +4055,7 @@
         <v>22026.25</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>102</v>
       </c>
@@ -4035,7 +4066,7 @@
         <v>1218.8599999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>104</v>
       </c>
@@ -4046,7 +4077,7 @@
         <v>8170.76</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>106</v>
       </c>
@@ -4057,7 +4088,7 @@
         <v>3743.42</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>108</v>
       </c>
@@ -4068,7 +4099,7 @@
         <v>7982.85</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>150</v>
       </c>
@@ -4079,7 +4110,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>110</v>
       </c>
@@ -4090,7 +4121,7 @@
         <v>5189.71</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>112</v>
       </c>
@@ -4101,7 +4132,7 @@
         <v>968.76</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>114</v>
       </c>
@@ -4112,7 +4143,7 @@
         <v>81731.14</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>116</v>
       </c>
@@ -4123,7 +4154,7 @@
         <v>4769.8900000000003</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>118</v>
       </c>
@@ -4134,7 +4165,7 @@
         <v>1571.97</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>120</v>
       </c>
@@ -4145,7 +4176,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>122</v>
       </c>
@@ -4156,7 +4187,7 @@
         <v>7167.28</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>152</v>
       </c>
@@ -4167,7 +4198,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>124</v>
       </c>
@@ -4178,7 +4209,7 @@
         <v>30325.95</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>126</v>
       </c>
@@ -4189,7 +4220,7 @@
         <v>101000</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>128</v>
       </c>
@@ -4200,7 +4231,7 @@
         <v>31307.08</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>140</v>
       </c>
@@ -4211,7 +4242,7 @@
         <v>3817.5</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>130</v>
       </c>
@@ -4222,7 +4253,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>132</v>
       </c>
@@ -4233,7 +4264,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>134</v>
       </c>
@@ -4244,7 +4275,7 @@
         <v>4871.91</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>136</v>
       </c>
@@ -4255,7 +4286,7 @@
         <v>2034.85</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>154</v>
       </c>
@@ -4266,7 +4297,7 @@
         <v>54990</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>142</v>
       </c>
@@ -4277,7 +4308,7 @@
         <v>857.01</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>144</v>
       </c>
@@ -4288,11 +4319,11 @@
         <v>1006.33</v>
       </c>
     </row>
-    <row r="77" spans="1:4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
     </row>
-    <row r="78" spans="1:4" s="4" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" s="4" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>138</v>
       </c>
@@ -4308,7 +4339,7 @@
         <v>6241115.2599999988</v>
       </c>
     </row>
-    <row r="79" spans="1:4" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="12"/>
@@ -4329,22 +4360,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="2" customWidth="1"/>
-    <col min="3" max="4" width="11.7109375" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.7265625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="11.7265625" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -4358,7 +4389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -4369,7 +4400,7 @@
         <v>1312552.22</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -4380,7 +4411,7 @@
         <v>2347.36</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -4391,7 +4422,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -4402,7 +4433,7 @@
         <v>1301002.33</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -4413,7 +4444,7 @@
         <v>13100</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -4424,7 +4455,7 @@
         <v>111809.7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -4435,7 +4466,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -4446,7 +4477,7 @@
         <v>253111.15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -4457,7 +4488,7 @@
         <v>331372.21999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -4468,7 +4499,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -4479,7 +4510,7 @@
         <v>272799.65999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -4490,7 +4521,7 @@
         <v>161393.69</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -4501,7 +4532,7 @@
         <v>22500</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
@@ -4512,7 +4543,7 @@
         <v>89811.59</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
@@ -4523,7 +4554,7 @@
         <v>25701.71</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>36</v>
       </c>
@@ -4534,7 +4565,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>38</v>
       </c>
@@ -4545,7 +4576,7 @@
         <v>162907.1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
@@ -4556,7 +4587,7 @@
         <v>1369607.08</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>42</v>
       </c>
@@ -4567,7 +4598,7 @@
         <v>939303.02</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>44</v>
       </c>
@@ -4578,7 +4609,7 @@
         <v>589135.61</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>46</v>
       </c>
@@ -4589,7 +4620,7 @@
         <v>90316</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>48</v>
       </c>
@@ -4600,7 +4631,7 @@
         <v>116288.71</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>50</v>
       </c>
@@ -4611,7 +4642,7 @@
         <v>8270</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>52</v>
       </c>
@@ -4622,7 +4653,7 @@
         <v>1451656.01</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>54</v>
       </c>
@@ -4633,7 +4664,7 @@
         <v>1276268.22</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>56</v>
       </c>
@@ -4644,7 +4675,7 @@
         <v>9591.27</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>146</v>
       </c>
@@ -4655,7 +4686,7 @@
         <v>3331.3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>156</v>
       </c>
@@ -4666,7 +4697,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
@@ -4677,7 +4708,7 @@
         <v>1052268.8500000001</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>60</v>
       </c>
@@ -4688,7 +4719,7 @@
         <v>1160213.6200000001</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
@@ -4699,7 +4730,7 @@
         <v>137013.71</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>64</v>
       </c>
@@ -4710,7 +4741,7 @@
         <v>110587.97</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
@@ -4721,7 +4752,7 @@
         <v>490111.39</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>68</v>
       </c>
@@ -4732,7 +4763,7 @@
         <v>22500</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>70</v>
       </c>
@@ -4743,7 +4774,7 @@
         <v>68478.61</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>72</v>
       </c>
@@ -4754,7 +4785,7 @@
         <v>14504.17</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>74</v>
       </c>
@@ -4765,7 +4796,7 @@
         <v>40055.279999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>76</v>
       </c>
@@ -4776,7 +4807,7 @@
         <v>45343.93</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>78</v>
       </c>
@@ -4787,7 +4818,7 @@
         <v>68306.83</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>80</v>
       </c>
@@ -4798,7 +4829,7 @@
         <v>97349.55</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>82</v>
       </c>
@@ -4809,7 +4840,7 @@
         <v>7405.76</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>84</v>
       </c>
@@ -4820,7 +4851,7 @@
         <v>113645.41</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>86</v>
       </c>
@@ -4831,7 +4862,7 @@
         <v>2269.17</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>88</v>
       </c>
@@ -4842,7 +4873,7 @@
         <v>2920.87</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>90</v>
       </c>
@@ -4853,7 +4884,7 @@
         <v>30.95</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>148</v>
       </c>
@@ -4864,7 +4895,7 @@
         <v>2159.86</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>92</v>
       </c>
@@ -4875,7 +4906,7 @@
         <v>2277.33</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>94</v>
       </c>
@@ -4886,7 +4917,7 @@
         <v>2779.27</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>96</v>
       </c>
@@ -4897,7 +4928,7 @@
         <v>472.82</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>98</v>
       </c>
@@ -4908,7 +4939,7 @@
         <v>12499.27</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>100</v>
       </c>
@@ -4919,7 +4950,7 @@
         <v>41824.99</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>102</v>
       </c>
@@ -4930,7 +4961,7 @@
         <v>1269.01</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>104</v>
       </c>
@@ -4941,7 +4972,7 @@
         <v>10267.950000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>106</v>
       </c>
@@ -4952,7 +4983,7 @@
         <v>9602.14</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>108</v>
       </c>
@@ -4963,7 +4994,7 @@
         <v>9833.43</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>150</v>
       </c>
@@ -4974,7 +5005,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>110</v>
       </c>
@@ -4985,7 +5016,7 @@
         <v>5797.96</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>112</v>
       </c>
@@ -4996,7 +5027,7 @@
         <v>1210.95</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>114</v>
       </c>
@@ -5007,7 +5038,7 @@
         <v>103726.56</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>116</v>
       </c>
@@ -5018,7 +5049,7 @@
         <v>5765.37</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>118</v>
       </c>
@@ -5029,7 +5060,7 @@
         <v>7505.81</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>120</v>
       </c>
@@ -5040,7 +5071,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>122</v>
       </c>
@@ -5051,7 +5082,7 @@
         <v>9889.42</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>152</v>
       </c>
@@ -5062,7 +5093,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>124</v>
       </c>
@@ -5073,7 +5104,7 @@
         <v>33908.300000000003</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>126</v>
       </c>
@@ -5084,7 +5115,7 @@
         <v>126250</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>128</v>
       </c>
@@ -5095,7 +5126,7 @@
         <v>40207.21</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>140</v>
       </c>
@@ -5106,7 +5137,7 @@
         <v>10530</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>130</v>
       </c>
@@ -5117,7 +5148,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>132</v>
       </c>
@@ -5128,7 +5159,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>134</v>
       </c>
@@ -5139,7 +5170,7 @@
         <v>6327.62</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>136</v>
       </c>
@@ -5150,7 +5181,7 @@
         <v>2094.85</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>154</v>
       </c>
@@ -5161,7 +5192,7 @@
         <v>33990</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>142</v>
       </c>
@@ -5172,7 +5203,7 @@
         <v>857.01</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>158</v>
       </c>
@@ -5183,7 +5214,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>144</v>
       </c>
@@ -5194,11 +5225,11 @@
         <v>729.23</v>
       </c>
     </row>
-    <row r="78" spans="1:4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
     </row>
-    <row r="79" spans="1:4" s="4" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" s="4" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>138</v>
       </c>
@@ -5214,7 +5245,7 @@
         <v>6976243.1899999985</v>
       </c>
     </row>
-    <row r="80" spans="1:4" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="12"/>
@@ -5232,4 +5263,984 @@
     <oddFooter>&amp;L&amp;9&amp;"Arial"&amp;B&amp;D at &amp;T&amp;R&amp;9&amp;"Arial"&amp;BPage: &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9488EA71-2B5A-493F-B368-AA72D3E27866}">
+  <dimension ref="A1:D80"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6">
+        <v>690167.41</v>
+      </c>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1826.61</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6">
+        <v>100</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6">
+        <v>774831.71</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="6">
+        <v>13100</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="6">
+        <v>111809.7</v>
+      </c>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="6">
+        <v>43496</v>
+      </c>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="6">
+        <v>253111.15</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6">
+        <v>331372.21999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="6">
+        <v>377</v>
+      </c>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6">
+        <v>77286.679999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6">
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6">
+        <v>89811.59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6">
+        <v>25701.71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" s="6">
+        <v>750000</v>
+      </c>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6">
+        <v>162907.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6">
+        <v>1369607.08</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6">
+        <v>939303.02</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6">
+        <v>589135.61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6">
+        <v>121724.05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6">
+        <v>116288.71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6">
+        <v>8270</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6">
+        <v>1615970.35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6">
+        <v>1491987.45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6">
+        <v>12754.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6">
+        <v>3331.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="6">
+        <v>1260226.2</v>
+      </c>
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="6">
+        <v>1201464</v>
+      </c>
+      <c r="D32" s="6"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="6">
+        <v>146096.79999999999</v>
+      </c>
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="6">
+        <v>111116.07</v>
+      </c>
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="6">
+        <v>512423.09</v>
+      </c>
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="6">
+        <v>22500</v>
+      </c>
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="6">
+        <v>84755.48</v>
+      </c>
+      <c r="D37" s="6"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="6">
+        <v>16053.77</v>
+      </c>
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="6">
+        <v>47542.12</v>
+      </c>
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="6">
+        <v>56857.89</v>
+      </c>
+      <c r="D40" s="6"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="6">
+        <v>81438.47</v>
+      </c>
+      <c r="D41" s="6"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="6">
+        <v>116442.74</v>
+      </c>
+      <c r="D42" s="6"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="6">
+        <v>8906.77</v>
+      </c>
+      <c r="D43" s="6"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="6">
+        <v>136475.41</v>
+      </c>
+      <c r="D44" s="6"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="6">
+        <v>2329.59</v>
+      </c>
+      <c r="D45" s="6"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" s="6">
+        <v>3190.79</v>
+      </c>
+      <c r="D46" s="6"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6">
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C48" s="6">
+        <v>7327.2</v>
+      </c>
+      <c r="D48" s="6"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C49" s="6">
+        <v>5159.8599999999997</v>
+      </c>
+      <c r="D49" s="6"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" s="6">
+        <v>2277.33</v>
+      </c>
+      <c r="D50" s="6"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" s="6">
+        <v>2779.27</v>
+      </c>
+      <c r="D51" s="6"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" s="6">
+        <v>472.82</v>
+      </c>
+      <c r="D52" s="6"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" s="6">
+        <v>12499.27</v>
+      </c>
+      <c r="D53" s="6"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" s="6">
+        <v>41824.99</v>
+      </c>
+      <c r="D54" s="6"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" s="6">
+        <v>1269.01</v>
+      </c>
+      <c r="D55" s="6"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" s="6">
+        <v>12084.25</v>
+      </c>
+      <c r="D56" s="6"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C57" s="6">
+        <v>9950.14</v>
+      </c>
+      <c r="D57" s="6"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C58" s="6">
+        <v>11894.18</v>
+      </c>
+      <c r="D58" s="6"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C59" s="6">
+        <v>260</v>
+      </c>
+      <c r="D59" s="6"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C60" s="6">
+        <v>5823.33</v>
+      </c>
+      <c r="D60" s="6"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C61" s="6">
+        <v>1210.95</v>
+      </c>
+      <c r="D61" s="6"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C62" s="6">
+        <v>123948.09</v>
+      </c>
+      <c r="D62" s="6"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C63" s="6">
+        <v>6207.68</v>
+      </c>
+      <c r="D63" s="6"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C64" s="6">
+        <v>8584.25</v>
+      </c>
+      <c r="D64" s="6"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C65" s="6">
+        <v>2058</v>
+      </c>
+      <c r="D65" s="6"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C66" s="6">
+        <v>9889.42</v>
+      </c>
+      <c r="D66" s="6"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C67" s="6">
+        <v>70</v>
+      </c>
+      <c r="D67" s="6"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C68" s="6">
+        <v>33908.300000000003</v>
+      </c>
+      <c r="D68" s="6"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C69" s="6">
+        <v>151500</v>
+      </c>
+      <c r="D69" s="6"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C70" s="6">
+        <v>48124.31</v>
+      </c>
+      <c r="D70" s="6"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C71" s="6">
+        <v>10530</v>
+      </c>
+      <c r="D71" s="6"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C72" s="6">
+        <v>210</v>
+      </c>
+      <c r="D72" s="6"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C73" s="6">
+        <v>66000</v>
+      </c>
+      <c r="D73" s="6"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C74" s="6">
+        <v>7498.15</v>
+      </c>
+      <c r="D74" s="6"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C75" s="6">
+        <v>2094.85</v>
+      </c>
+      <c r="D75" s="6"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6">
+        <v>33990</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6">
+        <v>34.75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C78" s="6">
+        <v>857.01</v>
+      </c>
+      <c r="D78" s="6"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C79" s="6">
+        <v>300</v>
+      </c>
+      <c r="D79" s="6"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C80" s="6">
+        <v>729.23</v>
+      </c>
+      <c r="D80" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/documents/trial_balances/HazTrain TB.2023 by month GENAESIS Confidential.xlsx
+++ b/documents/trial_balances/HazTrain TB.2023 by month GENAESIS Confidential.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Finance-Model\documents\trial_balances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673E947B-D1C2-412E-AAC6-24D25BE66ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C55C5F-783B-4DC7-B8EA-45773B68E6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32740" yWindow="580" windowWidth="31760" windowHeight="19350" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37380" yWindow="670" windowWidth="35140" windowHeight="17740" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jan 2023 Trial Balance" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="April 2023 Trial Balance" sheetId="4" r:id="rId4"/>
     <sheet name="May 2023 Trial Balance" sheetId="5" r:id="rId5"/>
     <sheet name="June 2023 Trial Balance" sheetId="6" r:id="rId6"/>
+    <sheet name="July 2023 Trial Balance" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'April 2023 Trial Balance'!$1:$1</definedName>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="168">
   <si>
     <t>Account ID</t>
   </si>
@@ -546,6 +547,12 @@
   </si>
   <si>
     <t>Interest Expense</t>
+  </si>
+  <si>
+    <t>23400</t>
+  </si>
+  <si>
+    <t>Deferred Income</t>
   </si>
 </sst>
 </file>
@@ -637,7 +644,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -660,6 +667,28 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -5269,7 +5298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9488EA71-2B5A-493F-B368-AA72D3E27866}">
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -6243,4 +6272,990 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4CBAA2B-1871-43B7-B6FB-A384545E3E17}">
+  <dimension ref="A1:D84"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="L74" sqref="L74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="17">
+        <v>799700.97</v>
+      </c>
+      <c r="D2" s="13"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="17">
+        <v>840.97</v>
+      </c>
+      <c r="D3" s="13"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="17">
+        <v>100</v>
+      </c>
+      <c r="D4" s="13"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="17">
+        <v>1316834.43</v>
+      </c>
+      <c r="D5" s="13"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="17">
+        <v>13100</v>
+      </c>
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="17">
+        <v>111809.7</v>
+      </c>
+      <c r="D7" s="13"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="17">
+        <v>43496</v>
+      </c>
+      <c r="D8" s="13"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="17">
+        <v>253111.15</v>
+      </c>
+      <c r="D9" s="13"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="17">
+        <v>331856.59999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="17">
+        <v>377</v>
+      </c>
+      <c r="D11" s="13"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="17">
+        <v>215634.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="17">
+        <v>143458.69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="17">
+        <v>31500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="17">
+        <v>86785.09</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="17">
+        <v>25701.71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="17">
+        <v>37000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="17">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" s="17">
+        <v>750000</v>
+      </c>
+      <c r="D19" s="13"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="17">
+        <v>162907.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="17">
+        <v>1369607.08</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="17">
+        <v>1277501.28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="17">
+        <v>822613.59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="17">
+        <v>138010.68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="17">
+        <v>213792.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="17">
+        <v>8270</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="17">
+        <v>1890936.52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="17">
+        <v>1769079.11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="17">
+        <v>14569.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="17">
+        <v>3331.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="17">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="17">
+        <v>1443225.15</v>
+      </c>
+      <c r="D32" s="13"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="17">
+        <v>1526135.04</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="17">
+        <v>191547.32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="17">
+        <v>139267.98000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="17">
+        <v>598068.05000000005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="17">
+        <v>31500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="17">
+        <v>98605.23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="17">
+        <v>18763.560000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="17">
+        <v>53567.41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="17">
+        <v>75926.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="17">
+        <v>95191.43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="17">
+        <v>133431.41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="17">
+        <v>10345.959999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="17">
+        <v>158620.07999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" s="17">
+        <v>2393.9299999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="17">
+        <v>3503.46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" s="17">
+        <v>14.49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C49" s="17">
+        <v>7327.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C50" s="17">
+        <v>5329.24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51" s="17">
+        <v>2277.33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" s="17">
+        <v>3925.94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" s="17">
+        <v>472.82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" s="17">
+        <v>12499.27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" s="17">
+        <v>58707.31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C56" s="17">
+        <v>1204.82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C57" s="17">
+        <v>14254.56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C58" s="17">
+        <v>11055.21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59" s="17">
+        <v>13885.02</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C60" s="17">
+        <v>1637.97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C61" s="17">
+        <v>6768.3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C62" s="17">
+        <v>1695.33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C63" s="17">
+        <v>149515.07999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C64" s="17">
+        <v>8032.53</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C65" s="17">
+        <v>9356.02</v>
+      </c>
+      <c r="D65" s="13"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C66" s="17">
+        <v>2401</v>
+      </c>
+      <c r="D66" s="13"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C67" s="17">
+        <v>12569.75</v>
+      </c>
+      <c r="D67" s="13"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C68" s="17">
+        <v>130.18</v>
+      </c>
+      <c r="D68" s="13"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C69" s="17">
+        <v>43867.35</v>
+      </c>
+      <c r="D69" s="13"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C70" s="17">
+        <v>176750</v>
+      </c>
+      <c r="D70" s="13"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C71" s="17">
+        <v>56620.72</v>
+      </c>
+      <c r="D71" s="13"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C72" s="17">
+        <v>10530</v>
+      </c>
+      <c r="D72" s="13"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C73" s="17">
+        <v>13210</v>
+      </c>
+      <c r="D73" s="13"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C74" s="17">
+        <v>90652.07</v>
+      </c>
+      <c r="D74" s="13"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C75" s="17">
+        <v>8731.09</v>
+      </c>
+      <c r="D75" s="13"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C76" s="17">
+        <v>2252.98</v>
+      </c>
+      <c r="D76" s="13"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77" s="13"/>
+      <c r="D77" s="17">
+        <v>33990</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C78" s="13"/>
+      <c r="D78" s="17">
+        <v>34.75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C79" s="17">
+        <v>1858.11</v>
+      </c>
+      <c r="D79" s="13"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C80" s="17">
+        <v>868.46</v>
+      </c>
+      <c r="D80" s="13"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C81" s="17">
+        <v>716.52</v>
+      </c>
+      <c r="D81" s="13"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="13"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="20"/>
+    </row>
+    <row r="83" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C83" s="16">
+        <v>8598579.7000000011</v>
+      </c>
+      <c r="D83" s="16">
+        <v>8598579.7000000011</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="21"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/documents/trial_balances/HazTrain TB.2023 by month GENAESIS Confidential.xlsx
+++ b/documents/trial_balances/HazTrain TB.2023 by month GENAESIS Confidential.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Finance-Model\documents\trial_balances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\Finance-Model\documents\trial_balances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C55C5F-783B-4DC7-B8EA-45773B68E6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F362F1B-9FAE-4C90-8AA2-0A22907AD4D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37380" yWindow="670" windowWidth="35140" windowHeight="17740" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5303" yWindow="1643" windowWidth="16200" windowHeight="9982" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jan 2023 Trial Balance" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="May 2023 Trial Balance" sheetId="5" r:id="rId5"/>
     <sheet name="June 2023 Trial Balance" sheetId="6" r:id="rId6"/>
     <sheet name="July 2023 Trial Balance" sheetId="7" r:id="rId7"/>
+    <sheet name="August 2023 Trial Balance" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'April 2023 Trial Balance'!$1:$1</definedName>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="172">
   <si>
     <t>Account ID</t>
   </si>
@@ -553,6 +554,18 @@
   </si>
   <si>
     <t>Deferred Income</t>
+  </si>
+  <si>
+    <t>22550</t>
+  </si>
+  <si>
+    <t>AFLAC Insurance</t>
+  </si>
+  <si>
+    <t>31000</t>
+  </si>
+  <si>
+    <t>WACO/LOCAL PRIVATE</t>
   </si>
 </sst>
 </file>
@@ -644,7 +657,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -667,28 +680,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -976,15 +967,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="11.65" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.7265625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="11.7265625" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="11.73046875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.73046875" style="2" customWidth="1"/>
+    <col min="3" max="4" width="11.73046875" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -998,7 +989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1009,7 +1000,7 @@
         <v>737289.83</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1020,7 +1011,7 @@
         <v>1207.69</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1031,7 +1022,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1042,7 +1033,7 @@
         <v>1082932.01</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1053,7 +1044,7 @@
         <v>13100</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1064,7 +1055,7 @@
         <v>111809.7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1075,7 +1066,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -1086,7 +1077,7 @@
         <v>253111.15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -1097,7 +1088,7 @@
         <v>330403.46000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -1108,7 +1099,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -1119,7 +1110,7 @@
         <v>153340.12</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -1130,7 +1121,7 @@
         <v>111276.41</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -1141,7 +1132,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
@@ -1152,7 +1143,7 @@
         <v>958.76</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>32</v>
       </c>
@@ -1163,7 +1154,7 @@
         <v>90537.89</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
@@ -1174,7 +1165,7 @@
         <v>25701.71</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
@@ -1185,7 +1176,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -1196,7 +1187,7 @@
         <v>162907.1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -1207,7 +1198,7 @@
         <v>1369607.08</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>42</v>
       </c>
@@ -1218,7 +1209,7 @@
         <v>123200.91</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>44</v>
       </c>
@@ -1229,7 +1220,7 @@
         <v>122179.65</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>46</v>
       </c>
@@ -1240,7 +1231,7 @@
         <v>5432.72</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
@@ -1251,7 +1242,7 @@
         <v>18160.13</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>50</v>
       </c>
@@ -1262,7 +1253,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>52</v>
       </c>
@@ -1273,7 +1264,7 @@
         <v>221277.59</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>54</v>
       </c>
@@ -1284,7 +1275,7 @@
         <v>283319.92</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>56</v>
       </c>
@@ -1295,7 +1286,7 @@
         <v>1393.48</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>58</v>
       </c>
@@ -1306,7 +1297,7 @@
         <v>190332.11</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>60</v>
       </c>
@@ -1317,7 +1308,7 @@
         <v>189448.26</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>62</v>
       </c>
@@ -1328,7 +1319,7 @@
         <v>27946.28</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>64</v>
       </c>
@@ -1339,7 +1330,7 @@
         <v>30893.06</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>66</v>
       </c>
@@ -1350,7 +1341,7 @@
         <v>105173.44</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>68</v>
       </c>
@@ -1361,7 +1352,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>70</v>
       </c>
@@ -1372,7 +1363,7 @@
         <v>16661.349999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>72</v>
       </c>
@@ -1383,7 +1374,7 @@
         <v>2988.14</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>74</v>
       </c>
@@ -1394,7 +1385,7 @@
         <v>7989.39</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>76</v>
       </c>
@@ -1405,7 +1396,7 @@
         <v>24275.42</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>78</v>
       </c>
@@ -1416,7 +1407,7 @@
         <v>15742.64</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>80</v>
       </c>
@@ -1427,7 +1418,7 @@
         <v>19793.68</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>82</v>
       </c>
@@ -1438,7 +1429,7 @@
         <v>1507.26</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>84</v>
       </c>
@@ -1449,7 +1440,7 @@
         <v>22515.02</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>86</v>
       </c>
@@ -1460,7 +1451,7 @@
         <v>1671.41</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>88</v>
       </c>
@@ -1471,7 +1462,7 @@
         <v>9594.2099999999991</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>90</v>
       </c>
@@ -1482,7 +1473,7 @@
         <v>18.87</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>92</v>
       </c>
@@ -1493,7 +1484,7 @@
         <v>2277.33</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>94</v>
       </c>
@@ -1504,7 +1495,7 @@
         <v>893.76</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>96</v>
       </c>
@@ -1515,7 +1506,7 @@
         <v>297.85000000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>98</v>
       </c>
@@ -1526,7 +1517,7 @@
         <v>2535.1799999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>100</v>
       </c>
@@ -1537,7 +1528,7 @@
         <v>18526.25</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>102</v>
       </c>
@@ -1548,7 +1539,7 @@
         <v>776.64</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>104</v>
       </c>
@@ -1559,7 +1550,7 @@
         <v>300.11</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>106</v>
       </c>
@@ -1570,7 +1561,7 @@
         <v>1238.8800000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>108</v>
       </c>
@@ -1581,7 +1572,7 @@
         <v>2222.35</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>110</v>
       </c>
@@ -1592,7 +1583,7 @@
         <v>2362.9</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>112</v>
       </c>
@@ -1603,7 +1594,7 @@
         <v>242.19</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>114</v>
       </c>
@@ -1614,7 +1605,7 @@
         <v>19562.75</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>116</v>
       </c>
@@ -1625,7 +1616,7 @@
         <v>1352.18</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>118</v>
       </c>
@@ -1636,7 +1627,7 @@
         <v>645.55999999999995</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>120</v>
       </c>
@@ -1647,7 +1638,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>122</v>
       </c>
@@ -1658,7 +1649,7 @@
         <v>5507.1</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>124</v>
       </c>
@@ -1669,7 +1660,7 @@
         <v>8910.18</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>126</v>
       </c>
@@ -1680,7 +1671,7 @@
         <v>25250</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>128</v>
       </c>
@@ -1691,7 +1682,7 @@
         <v>6934.73</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>130</v>
       </c>
@@ -1702,7 +1693,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>132</v>
       </c>
@@ -1713,7 +1704,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>134</v>
       </c>
@@ -1724,7 +1715,7 @@
         <v>1144.22</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>136</v>
       </c>
@@ -1735,11 +1726,11 @@
         <v>714.85</v>
       </c>
     </row>
-    <row r="69" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
     </row>
-    <row r="70" spans="1:4" s="4" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" s="4" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="3" t="s">
         <v>138</v>
       </c>
@@ -1755,7 +1746,7 @@
         <v>3027721.93</v>
       </c>
     </row>
-    <row r="71" spans="1:4" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:4" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="12"/>
@@ -1781,15 +1772,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="11.65" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.7265625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="11.7265625" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="11.73046875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.73046875" style="2" customWidth="1"/>
+    <col min="3" max="4" width="11.73046875" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1803,7 +1794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1814,7 +1805,7 @@
         <v>1238993.67</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1825,7 +1816,7 @@
         <v>1817.49</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1836,7 +1827,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1847,7 +1838,7 @@
         <v>964546.39</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1858,7 +1849,7 @@
         <v>13100</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1869,7 +1860,7 @@
         <v>111809.7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1880,7 +1871,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -1891,7 +1882,7 @@
         <v>253111.15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -1902,7 +1893,7 @@
         <v>330645.65000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -1913,7 +1904,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -1924,7 +1915,7 @@
         <v>255603.89</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -1935,7 +1926,7 @@
         <v>199225.87</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -1946,7 +1937,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
@@ -1957,7 +1948,7 @@
         <v>479.38</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>32</v>
       </c>
@@ -1968,7 +1959,7 @@
         <v>88093.68</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
@@ -1979,7 +1970,7 @@
         <v>25701.71</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
@@ -1990,7 +1981,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -2001,7 +1992,7 @@
         <v>162907.1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -2012,7 +2003,7 @@
         <v>1369607.08</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>42</v>
       </c>
@@ -2023,7 +2014,7 @@
         <v>295137.01</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>44</v>
       </c>
@@ -2034,7 +2025,7 @@
         <v>238918.64</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>46</v>
       </c>
@@ -2045,7 +2036,7 @@
         <v>22622.58</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
@@ -2056,7 +2047,7 @@
         <v>53201.23</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>50</v>
       </c>
@@ -2067,7 +2058,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>52</v>
       </c>
@@ -2078,7 +2069,7 @@
         <v>573853.88</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>54</v>
       </c>
@@ -2089,7 +2080,7 @@
         <v>515995.37</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>56</v>
       </c>
@@ -2100,7 +2091,7 @@
         <v>2805.82</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>58</v>
       </c>
@@ -2111,7 +2102,7 @@
         <v>416098.37</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>60</v>
       </c>
@@ -2122,7 +2113,7 @@
         <v>435227.13</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>62</v>
       </c>
@@ -2133,7 +2124,7 @@
         <v>40958.31</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>64</v>
       </c>
@@ -2144,7 +2135,7 @@
         <v>37280</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>66</v>
       </c>
@@ -2155,7 +2146,7 @@
         <v>161605.21</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>68</v>
       </c>
@@ -2166,7 +2157,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>70</v>
       </c>
@@ -2177,7 +2168,7 @@
         <v>29515.75</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>72</v>
       </c>
@@ -2188,7 +2179,7 @@
         <v>4609.6899999999996</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>74</v>
       </c>
@@ -2199,7 +2190,7 @@
         <v>16424.48</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>76</v>
       </c>
@@ -2210,7 +2201,7 @@
         <v>32818.92</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>78</v>
       </c>
@@ -2221,7 +2212,7 @@
         <v>27270</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>80</v>
       </c>
@@ -2232,7 +2223,7 @@
         <v>41478.46</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>82</v>
       </c>
@@ -2243,7 +2234,7 @@
         <v>3014.52</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>84</v>
       </c>
@@ -2254,7 +2245,7 @@
         <v>46646.38</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>86</v>
       </c>
@@ -2265,7 +2256,7 @@
         <v>2255.83</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>88</v>
       </c>
@@ -2276,7 +2267,7 @@
         <v>14836.66</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>90</v>
       </c>
@@ -2287,7 +2278,7 @@
         <v>25.56</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>92</v>
       </c>
@@ -2298,7 +2289,7 @@
         <v>2277.33</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>94</v>
       </c>
@@ -2309,7 +2300,7 @@
         <v>1334.24</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>96</v>
       </c>
@@ -2320,7 +2311,7 @@
         <v>297.85000000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>98</v>
       </c>
@@ -2331,7 +2322,7 @@
         <v>2535.1799999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>100</v>
       </c>
@@ -2342,7 +2333,7 @@
         <v>18526.25</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>102</v>
       </c>
@@ -2353,7 +2344,7 @@
         <v>1122.1600000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>104</v>
       </c>
@@ -2364,7 +2355,7 @@
         <v>2264.8000000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>106</v>
       </c>
@@ -2375,7 +2366,7 @@
         <v>2316.8200000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>108</v>
       </c>
@@ -2386,7 +2377,7 @@
         <v>4079.21</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>110</v>
       </c>
@@ -2397,7 +2388,7 @@
         <v>3560.06</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>112</v>
       </c>
@@ -2408,7 +2399,7 @@
         <v>484.38</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>114</v>
       </c>
@@ -2419,7 +2410,7 @@
         <v>41254.85</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>116</v>
       </c>
@@ -2430,7 +2421,7 @@
         <v>2812.53</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>118</v>
       </c>
@@ -2441,7 +2432,7 @@
         <v>1090.06</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>120</v>
       </c>
@@ -2452,7 +2443,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>122</v>
       </c>
@@ -2463,7 +2454,7 @@
         <v>5507.1</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>124</v>
       </c>
@@ -2474,7 +2465,7 @@
         <v>13324.34</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>126</v>
       </c>
@@ -2485,7 +2476,7 @@
         <v>50500</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>128</v>
       </c>
@@ -2496,7 +2487,7 @@
         <v>15447.35</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>140</v>
       </c>
@@ -2507,7 +2498,7 @@
         <v>3817.5</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>130</v>
       </c>
@@ -2518,7 +2509,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>132</v>
       </c>
@@ -2529,7 +2520,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>134</v>
       </c>
@@ -2540,7 +2531,7 @@
         <v>2520.0500000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>136</v>
       </c>
@@ -2551,7 +2542,7 @@
         <v>1159.8499999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>142</v>
       </c>
@@ -2562,7 +2553,7 @@
         <v>857.01</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>144</v>
       </c>
@@ -2573,11 +2564,11 @@
         <v>14.66</v>
       </c>
     </row>
-    <row r="72" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
     </row>
-    <row r="73" spans="1:4" s="4" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" s="4" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="3" t="s">
         <v>138</v>
       </c>
@@ -2593,7 +2584,7 @@
         <v>4146870.0700000003</v>
       </c>
     </row>
-    <row r="74" spans="1:4" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:4" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="12"/>
@@ -2619,15 +2610,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="11.65" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.7265625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="11.7265625" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="11.73046875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.73046875" style="2" customWidth="1"/>
+    <col min="3" max="4" width="11.73046875" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2641,7 +2632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2652,7 +2643,7 @@
         <v>1089580.81</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2663,7 +2654,7 @@
         <v>1833.92</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -2674,7 +2665,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -2685,7 +2676,7 @@
         <v>1231335.82</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -2696,7 +2687,7 @@
         <v>13100</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -2707,7 +2698,7 @@
         <v>111809.7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -2718,7 +2709,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -2729,7 +2720,7 @@
         <v>253111.15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -2740,7 +2731,7 @@
         <v>330887.84000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -2751,7 +2742,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -2762,7 +2753,7 @@
         <v>259894.28</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -2773,7 +2764,7 @@
         <v>89967.84</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -2784,7 +2775,7 @@
         <v>13500</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
@@ -2795,7 +2786,7 @@
         <v>94131.34</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
@@ -2806,7 +2797,7 @@
         <v>25701.71</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>36</v>
       </c>
@@ -2817,7 +2808,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>38</v>
       </c>
@@ -2828,7 +2819,7 @@
         <v>162907.1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
@@ -2839,7 +2830,7 @@
         <v>1369607.08</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>42</v>
       </c>
@@ -2850,7 +2841,7 @@
         <v>488937.21</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>44</v>
       </c>
@@ -2861,7 +2852,7 @@
         <v>355657.63</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>46</v>
       </c>
@@ -2872,7 +2863,7 @@
         <v>53389.56</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>48</v>
       </c>
@@ -2883,7 +2874,7 @@
         <v>80532.45</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>50</v>
       </c>
@@ -2894,7 +2885,7 @@
         <v>3020</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>52</v>
       </c>
@@ -2905,7 +2896,7 @@
         <v>793625.38</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>54</v>
       </c>
@@ -2916,7 +2907,7 @@
         <v>770830.25</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>56</v>
       </c>
@@ -2927,7 +2918,7 @@
         <v>4969.96</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>146</v>
       </c>
@@ -2938,7 +2929,7 @@
         <v>3331.3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>58</v>
       </c>
@@ -2949,7 +2940,7 @@
         <v>620842.56000000006</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>60</v>
       </c>
@@ -2960,7 +2951,7 @@
         <v>599469.11</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>62</v>
       </c>
@@ -2971,7 +2962,7 @@
         <v>59814.58</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>64</v>
       </c>
@@ -2982,7 +2973,7 @@
         <v>77237.39</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>66</v>
       </c>
@@ -2993,7 +2984,7 @@
         <v>235340.11</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>68</v>
       </c>
@@ -3004,7 +2995,7 @@
         <v>13500</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>70</v>
       </c>
@@ -3015,7 +3006,7 @@
         <v>46345.87</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>72</v>
       </c>
@@ -3026,7 +3017,7 @@
         <v>7193.66</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>74</v>
       </c>
@@ -3037,7 +3028,7 @@
         <v>24342.84</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>76</v>
       </c>
@@ -3048,7 +3039,7 @@
         <v>45343.93</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>78</v>
       </c>
@@ -3059,7 +3050,7 @@
         <v>41885.78</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>80</v>
       </c>
@@ -3070,7 +3061,7 @@
         <v>60187.25</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>82</v>
       </c>
@@ -3081,7 +3072,7 @@
         <v>4521.78</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>84</v>
       </c>
@@ -3092,7 +3083,7 @@
         <v>68789.17</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>86</v>
       </c>
@@ -3103,7 +3094,7 @@
         <v>2267.94</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>88</v>
       </c>
@@ -3114,7 +3105,7 @@
         <v>14290.89</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>90</v>
       </c>
@@ -3125,7 +3116,7 @@
         <v>6.72</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>148</v>
       </c>
@@ -3136,7 +3127,7 @@
         <v>1244.8</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>92</v>
       </c>
@@ -3147,7 +3138,7 @@
         <v>2277.33</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>94</v>
       </c>
@@ -3158,7 +3149,7 @@
         <v>1821.07</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>96</v>
       </c>
@@ -3169,7 +3160,7 @@
         <v>297.85000000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>98</v>
       </c>
@@ -3180,7 +3171,7 @@
         <v>2535.1799999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>100</v>
       </c>
@@ -3191,7 +3182,7 @@
         <v>18526.25</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>102</v>
       </c>
@@ -3202,7 +3193,7 @@
         <v>1155.45</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>104</v>
       </c>
@@ -3213,7 +3204,7 @@
         <v>6193.36</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>106</v>
       </c>
@@ -3224,7 +3215,7 @@
         <v>3034.12</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>108</v>
       </c>
@@ -3235,7 +3226,7 @@
         <v>5935.11</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>150</v>
       </c>
@@ -3246,7 +3237,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>110</v>
       </c>
@@ -3257,7 +3248,7 @@
         <v>4572.3500000000004</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>112</v>
       </c>
@@ -3268,7 +3259,7 @@
         <v>726.57</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>114</v>
       </c>
@@ -3279,7 +3270,7 @@
         <v>61454.99</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>116</v>
       </c>
@@ -3290,7 +3281,7 @@
         <v>3790.85</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>118</v>
       </c>
@@ -3301,7 +3292,7 @@
         <v>1288.71</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>120</v>
       </c>
@@ -3312,7 +3303,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>122</v>
       </c>
@@ -3323,7 +3314,7 @@
         <v>5751.68</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>152</v>
       </c>
@@ -3334,7 +3325,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>124</v>
       </c>
@@ -3345,7 +3336,7 @@
         <v>26185.5</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>126</v>
       </c>
@@ -3356,7 +3347,7 @@
         <v>75750</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>128</v>
       </c>
@@ -3367,7 +3358,7 @@
         <v>23017.74</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>140</v>
       </c>
@@ -3378,7 +3369,7 @@
         <v>3817.5</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>130</v>
       </c>
@@ -3389,7 +3380,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>132</v>
       </c>
@@ -3400,7 +3391,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>134</v>
       </c>
@@ -3411,7 +3402,7 @@
         <v>4015.54</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>136</v>
       </c>
@@ -3422,7 +3413,7 @@
         <v>1279.8499999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>154</v>
       </c>
@@ -3433,7 +3424,7 @@
         <v>54990</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>142</v>
       </c>
@@ -3444,7 +3435,7 @@
         <v>857.01</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>144</v>
       </c>
@@ -3455,11 +3446,11 @@
         <v>672.58</v>
       </c>
     </row>
-    <row r="76" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
     </row>
-    <row r="77" spans="1:4" s="4" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" s="4" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="3" t="s">
         <v>138</v>
       </c>
@@ -3475,7 +3466,7 @@
         <v>4956887.6499999994</v>
       </c>
     </row>
-    <row r="78" spans="1:4" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:4" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="12"/>
@@ -3501,15 +3492,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="11.65" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.7265625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="11.7265625" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="11.73046875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.73046875" style="2" customWidth="1"/>
+    <col min="3" max="4" width="11.73046875" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3523,7 +3514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -3534,7 +3525,7 @@
         <v>1367670.96</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3545,7 +3536,7 @@
         <v>2953.41</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -3556,7 +3547,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -3567,7 +3558,7 @@
         <v>1349454.86</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -3578,7 +3569,7 @@
         <v>13100</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -3589,7 +3580,7 @@
         <v>111809.7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -3600,7 +3591,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -3611,7 +3602,7 @@
         <v>253111.15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -3622,7 +3613,7 @@
         <v>331130.03000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -3633,7 +3624,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -3644,7 +3635,7 @@
         <v>445472.57</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -3655,7 +3646,7 @@
         <v>171868.34</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -3666,7 +3657,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
@@ -3677,7 +3668,7 @@
         <v>88947.04</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
@@ -3688,7 +3679,7 @@
         <v>25701.71</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>36</v>
       </c>
@@ -3699,7 +3690,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>38</v>
       </c>
@@ -3710,7 +3701,7 @@
         <v>162907.1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
@@ -3721,7 +3712,7 @@
         <v>1369607.08</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>42</v>
       </c>
@@ -3732,7 +3723,7 @@
         <v>653429.03</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>44</v>
       </c>
@@ -3743,7 +3734,7 @@
         <v>472396.62</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>46</v>
       </c>
@@ -3754,7 +3745,7 @@
         <v>77239.17</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>48</v>
       </c>
@@ -3765,7 +3756,7 @@
         <v>116288.71</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>50</v>
       </c>
@@ -3776,7 +3767,7 @@
         <v>7270</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>52</v>
       </c>
@@ -3787,7 +3778,7 @@
         <v>1163156.3500000001</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>54</v>
       </c>
@@ -3798,7 +3789,7 @@
         <v>1050426.44</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>56</v>
       </c>
@@ -3809,7 +3800,7 @@
         <v>6953.77</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>146</v>
       </c>
@@ -3820,7 +3811,7 @@
         <v>3331.3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>156</v>
       </c>
@@ -3831,7 +3822,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
@@ -3842,7 +3833,7 @@
         <v>842080.43</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>60</v>
       </c>
@@ -3853,7 +3844,7 @@
         <v>903276.86</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
@@ -3864,7 +3855,7 @@
         <v>100920.43</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>64</v>
       </c>
@@ -3875,7 +3866,7 @@
         <v>92232.1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
@@ -3886,7 +3877,7 @@
         <v>370190.96</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>68</v>
       </c>
@@ -3897,7 +3888,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>70</v>
       </c>
@@ -3908,7 +3899,7 @@
         <v>58461.39</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>72</v>
       </c>
@@ -3919,7 +3910,7 @@
         <v>10177.41</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>74</v>
       </c>
@@ -3930,7 +3921,7 @@
         <v>32524.18</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>76</v>
       </c>
@@ -3941,7 +3932,7 @@
         <v>45343.93</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>78</v>
       </c>
@@ -3952,7 +3943,7 @@
         <v>57143.6</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>80</v>
       </c>
@@ -3963,7 +3954,7 @@
         <v>80007.929999999993</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>82</v>
       </c>
@@ -3974,7 +3965,7 @@
         <v>5932.71</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>84</v>
       </c>
@@ -3985,7 +3976,7 @@
         <v>92005.34</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>86</v>
       </c>
@@ -3996,7 +3987,7 @@
         <v>2267.94</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>88</v>
       </c>
@@ -4007,7 +3998,7 @@
         <v>3089.61</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>90</v>
       </c>
@@ -4018,7 +4009,7 @@
         <v>12.12</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>148</v>
       </c>
@@ -4029,7 +4020,7 @@
         <v>2159.86</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>92</v>
       </c>
@@ -4040,7 +4031,7 @@
         <v>2277.33</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>94</v>
       </c>
@@ -4051,7 +4042,7 @@
         <v>2292.44</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>96</v>
       </c>
@@ -4062,7 +4053,7 @@
         <v>472.82</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>98</v>
       </c>
@@ -4073,7 +4064,7 @@
         <v>12499.27</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>100</v>
       </c>
@@ -4084,7 +4075,7 @@
         <v>22026.25</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>102</v>
       </c>
@@ -4095,7 +4086,7 @@
         <v>1218.8599999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>104</v>
       </c>
@@ -4106,7 +4097,7 @@
         <v>8170.76</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>106</v>
       </c>
@@ -4117,7 +4108,7 @@
         <v>3743.42</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>108</v>
       </c>
@@ -4128,7 +4119,7 @@
         <v>7982.85</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>150</v>
       </c>
@@ -4139,7 +4130,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>110</v>
       </c>
@@ -4150,7 +4141,7 @@
         <v>5189.71</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>112</v>
       </c>
@@ -4161,7 +4152,7 @@
         <v>968.76</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>114</v>
       </c>
@@ -4172,7 +4163,7 @@
         <v>81731.14</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>116</v>
       </c>
@@ -4183,7 +4174,7 @@
         <v>4769.8900000000003</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>118</v>
       </c>
@@ -4194,7 +4185,7 @@
         <v>1571.97</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>120</v>
       </c>
@@ -4205,7 +4196,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>122</v>
       </c>
@@ -4216,7 +4207,7 @@
         <v>7167.28</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>152</v>
       </c>
@@ -4227,7 +4218,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>124</v>
       </c>
@@ -4238,7 +4229,7 @@
         <v>30325.95</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>126</v>
       </c>
@@ -4249,7 +4240,7 @@
         <v>101000</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>128</v>
       </c>
@@ -4260,7 +4251,7 @@
         <v>31307.08</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>140</v>
       </c>
@@ -4271,7 +4262,7 @@
         <v>3817.5</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>130</v>
       </c>
@@ -4282,7 +4273,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>132</v>
       </c>
@@ -4293,7 +4284,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>134</v>
       </c>
@@ -4304,7 +4295,7 @@
         <v>4871.91</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>136</v>
       </c>
@@ -4315,7 +4306,7 @@
         <v>2034.85</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>154</v>
       </c>
@@ -4326,7 +4317,7 @@
         <v>54990</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>142</v>
       </c>
@@ -4337,7 +4328,7 @@
         <v>857.01</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>144</v>
       </c>
@@ -4348,11 +4339,11 @@
         <v>1006.33</v>
       </c>
     </row>
-    <row r="77" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
     </row>
-    <row r="78" spans="1:4" s="4" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" s="4" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="3" t="s">
         <v>138</v>
       </c>
@@ -4368,7 +4359,7 @@
         <v>6241115.2599999988</v>
       </c>
     </row>
-    <row r="79" spans="1:4" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:4" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="12"/>
@@ -4396,15 +4387,15 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="11.65" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.7265625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="11.7265625" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="11.73046875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.73046875" style="2" customWidth="1"/>
+    <col min="3" max="4" width="11.73046875" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -4418,7 +4409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -4429,7 +4420,7 @@
         <v>1312552.22</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -4440,7 +4431,7 @@
         <v>2347.36</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -4451,7 +4442,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -4462,7 +4453,7 @@
         <v>1301002.33</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -4473,7 +4464,7 @@
         <v>13100</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -4484,7 +4475,7 @@
         <v>111809.7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -4495,7 +4486,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -4506,7 +4497,7 @@
         <v>253111.15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -4517,7 +4508,7 @@
         <v>331372.21999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -4528,7 +4519,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -4539,7 +4530,7 @@
         <v>272799.65999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -4550,7 +4541,7 @@
         <v>161393.69</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -4561,7 +4552,7 @@
         <v>22500</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
@@ -4572,7 +4563,7 @@
         <v>89811.59</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
@@ -4583,7 +4574,7 @@
         <v>25701.71</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>36</v>
       </c>
@@ -4594,7 +4585,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>38</v>
       </c>
@@ -4605,7 +4596,7 @@
         <v>162907.1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
@@ -4616,7 +4607,7 @@
         <v>1369607.08</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>42</v>
       </c>
@@ -4627,7 +4618,7 @@
         <v>939303.02</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>44</v>
       </c>
@@ -4638,7 +4629,7 @@
         <v>589135.61</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>46</v>
       </c>
@@ -4649,7 +4640,7 @@
         <v>90316</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>48</v>
       </c>
@@ -4660,7 +4651,7 @@
         <v>116288.71</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>50</v>
       </c>
@@ -4671,7 +4662,7 @@
         <v>8270</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>52</v>
       </c>
@@ -4682,7 +4673,7 @@
         <v>1451656.01</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>54</v>
       </c>
@@ -4693,7 +4684,7 @@
         <v>1276268.22</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>56</v>
       </c>
@@ -4704,7 +4695,7 @@
         <v>9591.27</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>146</v>
       </c>
@@ -4715,7 +4706,7 @@
         <v>3331.3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>156</v>
       </c>
@@ -4726,7 +4717,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
@@ -4737,7 +4728,7 @@
         <v>1052268.8500000001</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>60</v>
       </c>
@@ -4748,7 +4739,7 @@
         <v>1160213.6200000001</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
@@ -4759,7 +4750,7 @@
         <v>137013.71</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>64</v>
       </c>
@@ -4770,7 +4761,7 @@
         <v>110587.97</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
@@ -4781,7 +4772,7 @@
         <v>490111.39</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>68</v>
       </c>
@@ -4792,7 +4783,7 @@
         <v>22500</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>70</v>
       </c>
@@ -4803,7 +4794,7 @@
         <v>68478.61</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>72</v>
       </c>
@@ -4814,7 +4805,7 @@
         <v>14504.17</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>74</v>
       </c>
@@ -4825,7 +4816,7 @@
         <v>40055.279999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>76</v>
       </c>
@@ -4836,7 +4827,7 @@
         <v>45343.93</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>78</v>
       </c>
@@ -4847,7 +4838,7 @@
         <v>68306.83</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>80</v>
       </c>
@@ -4858,7 +4849,7 @@
         <v>97349.55</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>82</v>
       </c>
@@ -4869,7 +4860,7 @@
         <v>7405.76</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>84</v>
       </c>
@@ -4880,7 +4871,7 @@
         <v>113645.41</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>86</v>
       </c>
@@ -4891,7 +4882,7 @@
         <v>2269.17</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>88</v>
       </c>
@@ -4902,7 +4893,7 @@
         <v>2920.87</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>90</v>
       </c>
@@ -4913,7 +4904,7 @@
         <v>30.95</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>148</v>
       </c>
@@ -4924,7 +4915,7 @@
         <v>2159.86</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>92</v>
       </c>
@@ -4935,7 +4926,7 @@
         <v>2277.33</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>94</v>
       </c>
@@ -4946,7 +4937,7 @@
         <v>2779.27</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>96</v>
       </c>
@@ -4957,7 +4948,7 @@
         <v>472.82</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>98</v>
       </c>
@@ -4968,7 +4959,7 @@
         <v>12499.27</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>100</v>
       </c>
@@ -4979,7 +4970,7 @@
         <v>41824.99</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>102</v>
       </c>
@@ -4990,7 +4981,7 @@
         <v>1269.01</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>104</v>
       </c>
@@ -5001,7 +4992,7 @@
         <v>10267.950000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>106</v>
       </c>
@@ -5012,7 +5003,7 @@
         <v>9602.14</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>108</v>
       </c>
@@ -5023,7 +5014,7 @@
         <v>9833.43</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>150</v>
       </c>
@@ -5034,7 +5025,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>110</v>
       </c>
@@ -5045,7 +5036,7 @@
         <v>5797.96</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>112</v>
       </c>
@@ -5056,7 +5047,7 @@
         <v>1210.95</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>114</v>
       </c>
@@ -5067,7 +5058,7 @@
         <v>103726.56</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>116</v>
       </c>
@@ -5078,7 +5069,7 @@
         <v>5765.37</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>118</v>
       </c>
@@ -5089,7 +5080,7 @@
         <v>7505.81</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>120</v>
       </c>
@@ -5100,7 +5091,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>122</v>
       </c>
@@ -5111,7 +5102,7 @@
         <v>9889.42</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>152</v>
       </c>
@@ -5122,7 +5113,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>124</v>
       </c>
@@ -5133,7 +5124,7 @@
         <v>33908.300000000003</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>126</v>
       </c>
@@ -5144,7 +5135,7 @@
         <v>126250</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>128</v>
       </c>
@@ -5155,7 +5146,7 @@
         <v>40207.21</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>140</v>
       </c>
@@ -5166,7 +5157,7 @@
         <v>10530</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>130</v>
       </c>
@@ -5177,7 +5168,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>132</v>
       </c>
@@ -5188,7 +5179,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>134</v>
       </c>
@@ -5199,7 +5190,7 @@
         <v>6327.62</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>136</v>
       </c>
@@ -5210,7 +5201,7 @@
         <v>2094.85</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>154</v>
       </c>
@@ -5221,7 +5212,7 @@
         <v>33990</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>142</v>
       </c>
@@ -5232,7 +5223,7 @@
         <v>857.01</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>158</v>
       </c>
@@ -5243,7 +5234,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>144</v>
       </c>
@@ -5254,11 +5245,11 @@
         <v>729.23</v>
       </c>
     </row>
-    <row r="78" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
     </row>
-    <row r="79" spans="1:4" s="4" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" s="4" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="3" t="s">
         <v>138</v>
       </c>
@@ -5274,7 +5265,7 @@
         <v>6976243.1899999985</v>
       </c>
     </row>
-    <row r="80" spans="1:4" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:4" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="12"/>
@@ -5302,12 +5293,12 @@
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -5321,7 +5312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -5333,7 +5324,7 @@
       </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -5345,7 +5336,7 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -5357,7 +5348,7 @@
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -5369,7 +5360,7 @@
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -5381,7 +5372,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -5393,7 +5384,7 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -5405,7 +5396,7 @@
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -5417,7 +5408,7 @@
       </c>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -5429,7 +5420,7 @@
         <v>331372.21999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -5441,7 +5432,7 @@
       </c>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -5453,7 +5444,7 @@
         <v>77286.679999999993</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -5465,7 +5456,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -5477,7 +5468,7 @@
         <v>22500</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
@@ -5489,7 +5480,7 @@
         <v>89811.59</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
@@ -5501,7 +5492,7 @@
         <v>25701.71</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>36</v>
       </c>
@@ -5513,7 +5504,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>160</v>
       </c>
@@ -5525,7 +5516,7 @@
       </c>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -5537,7 +5528,7 @@
         <v>162907.1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -5549,7 +5540,7 @@
         <v>1369607.08</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>42</v>
       </c>
@@ -5561,7 +5552,7 @@
         <v>939303.02</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>44</v>
       </c>
@@ -5573,7 +5564,7 @@
         <v>589135.61</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>46</v>
       </c>
@@ -5585,7 +5576,7 @@
         <v>121724.05</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
@@ -5597,7 +5588,7 @@
         <v>116288.71</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>50</v>
       </c>
@@ -5609,7 +5600,7 @@
         <v>8270</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>52</v>
       </c>
@@ -5621,7 +5612,7 @@
         <v>1615970.35</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>54</v>
       </c>
@@ -5633,7 +5624,7 @@
         <v>1491987.45</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>56</v>
       </c>
@@ -5645,7 +5636,7 @@
         <v>12754.7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
         <v>146</v>
       </c>
@@ -5657,7 +5648,7 @@
         <v>3331.3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
         <v>156</v>
       </c>
@@ -5669,7 +5660,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>58</v>
       </c>
@@ -5681,7 +5672,7 @@
       </c>
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>60</v>
       </c>
@@ -5693,7 +5684,7 @@
       </c>
       <c r="D32" s="6"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
         <v>62</v>
       </c>
@@ -5705,7 +5696,7 @@
       </c>
       <c r="D33" s="6"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
         <v>64</v>
       </c>
@@ -5717,7 +5708,7 @@
       </c>
       <c r="D34" s="6"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
         <v>66</v>
       </c>
@@ -5729,7 +5720,7 @@
       </c>
       <c r="D35" s="6"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>68</v>
       </c>
@@ -5741,7 +5732,7 @@
       </c>
       <c r="D36" s="6"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
         <v>70</v>
       </c>
@@ -5753,7 +5744,7 @@
       </c>
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
         <v>72</v>
       </c>
@@ -5765,7 +5756,7 @@
       </c>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
         <v>74</v>
       </c>
@@ -5777,7 +5768,7 @@
       </c>
       <c r="D39" s="6"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>76</v>
       </c>
@@ -5789,7 +5780,7 @@
       </c>
       <c r="D40" s="6"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
         <v>78</v>
       </c>
@@ -5801,7 +5792,7 @@
       </c>
       <c r="D41" s="6"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
         <v>80</v>
       </c>
@@ -5813,7 +5804,7 @@
       </c>
       <c r="D42" s="6"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
         <v>82</v>
       </c>
@@ -5825,7 +5816,7 @@
       </c>
       <c r="D43" s="6"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
         <v>84</v>
       </c>
@@ -5837,7 +5828,7 @@
       </c>
       <c r="D44" s="6"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="2" t="s">
         <v>86</v>
       </c>
@@ -5849,7 +5840,7 @@
       </c>
       <c r="D45" s="6"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
         <v>88</v>
       </c>
@@ -5861,7 +5852,7 @@
       </c>
       <c r="D46" s="6"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="2" t="s">
         <v>90</v>
       </c>
@@ -5873,7 +5864,7 @@
         <v>4.33</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
         <v>162</v>
       </c>
@@ -5885,7 +5876,7 @@
       </c>
       <c r="D48" s="6"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="2" t="s">
         <v>148</v>
       </c>
@@ -5897,7 +5888,7 @@
       </c>
       <c r="D49" s="6"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
         <v>92</v>
       </c>
@@ -5909,7 +5900,7 @@
       </c>
       <c r="D50" s="6"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="2" t="s">
         <v>94</v>
       </c>
@@ -5921,7 +5912,7 @@
       </c>
       <c r="D51" s="6"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" s="2" t="s">
         <v>96</v>
       </c>
@@ -5933,7 +5924,7 @@
       </c>
       <c r="D52" s="6"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="2" t="s">
         <v>98</v>
       </c>
@@ -5945,7 +5936,7 @@
       </c>
       <c r="D53" s="6"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="2" t="s">
         <v>100</v>
       </c>
@@ -5957,7 +5948,7 @@
       </c>
       <c r="D54" s="6"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="2" t="s">
         <v>102</v>
       </c>
@@ -5969,7 +5960,7 @@
       </c>
       <c r="D55" s="6"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="2" t="s">
         <v>104</v>
       </c>
@@ -5981,7 +5972,7 @@
       </c>
       <c r="D56" s="6"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="2" t="s">
         <v>106</v>
       </c>
@@ -5993,7 +5984,7 @@
       </c>
       <c r="D57" s="6"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="2" t="s">
         <v>108</v>
       </c>
@@ -6005,7 +5996,7 @@
       </c>
       <c r="D58" s="6"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="2" t="s">
         <v>150</v>
       </c>
@@ -6017,7 +6008,7 @@
       </c>
       <c r="D59" s="6"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="2" t="s">
         <v>110</v>
       </c>
@@ -6029,7 +6020,7 @@
       </c>
       <c r="D60" s="6"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" s="2" t="s">
         <v>112</v>
       </c>
@@ -6041,7 +6032,7 @@
       </c>
       <c r="D61" s="6"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" s="2" t="s">
         <v>114</v>
       </c>
@@ -6053,7 +6044,7 @@
       </c>
       <c r="D62" s="6"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" s="2" t="s">
         <v>116</v>
       </c>
@@ -6065,7 +6056,7 @@
       </c>
       <c r="D63" s="6"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" s="2" t="s">
         <v>118</v>
       </c>
@@ -6077,7 +6068,7 @@
       </c>
       <c r="D64" s="6"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="2" t="s">
         <v>120</v>
       </c>
@@ -6089,7 +6080,7 @@
       </c>
       <c r="D65" s="6"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" s="2" t="s">
         <v>122</v>
       </c>
@@ -6101,7 +6092,7 @@
       </c>
       <c r="D66" s="6"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" s="2" t="s">
         <v>152</v>
       </c>
@@ -6113,7 +6104,7 @@
       </c>
       <c r="D67" s="6"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" s="2" t="s">
         <v>124</v>
       </c>
@@ -6125,7 +6116,7 @@
       </c>
       <c r="D68" s="6"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" s="2" t="s">
         <v>126</v>
       </c>
@@ -6137,7 +6128,7 @@
       </c>
       <c r="D69" s="6"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" s="2" t="s">
         <v>128</v>
       </c>
@@ -6149,7 +6140,7 @@
       </c>
       <c r="D70" s="6"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" s="2" t="s">
         <v>140</v>
       </c>
@@ -6161,7 +6152,7 @@
       </c>
       <c r="D71" s="6"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="2" t="s">
         <v>130</v>
       </c>
@@ -6173,7 +6164,7 @@
       </c>
       <c r="D72" s="6"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" s="2" t="s">
         <v>132</v>
       </c>
@@ -6185,7 +6176,7 @@
       </c>
       <c r="D73" s="6"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="2" t="s">
         <v>134</v>
       </c>
@@ -6197,7 +6188,7 @@
       </c>
       <c r="D74" s="6"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" s="2" t="s">
         <v>136</v>
       </c>
@@ -6209,7 +6200,7 @@
       </c>
       <c r="D75" s="6"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" s="2" t="s">
         <v>154</v>
       </c>
@@ -6221,7 +6212,7 @@
         <v>33990</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" s="2" t="s">
         <v>164</v>
       </c>
@@ -6233,7 +6224,7 @@
         <v>34.75</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" s="2" t="s">
         <v>142</v>
       </c>
@@ -6245,7 +6236,7 @@
       </c>
       <c r="D78" s="6"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="2" t="s">
         <v>158</v>
       </c>
@@ -6257,7 +6248,7 @@
       </c>
       <c r="D79" s="6"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" s="2" t="s">
         <v>144</v>
       </c>
@@ -6278,982 +6269,1895 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4CBAA2B-1871-43B7-B6FB-A384545E3E17}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="L74" sqref="L74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6">
+        <v>799700.97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6">
+        <v>840.97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1316834.43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="6">
+        <v>13100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="6">
+        <v>111809.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="6">
+        <v>43496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="6">
+        <v>253111.15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="6">
+        <v>331856.59999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="6">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="6">
+        <v>215634.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="6">
+        <v>143458.69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="6">
+        <v>31500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="6">
+        <v>86785.09</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="6">
+        <v>25701.71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D17" s="6">
+        <v>37000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" s="6">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="6">
+        <v>162907.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="6">
+        <v>1369607.08</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="6">
+        <v>1277501.28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="6">
+        <v>822613.59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="6">
+        <v>138010.68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="6">
+        <v>213792.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="6">
+        <v>8270</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="6">
+        <v>1890936.52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="6">
+        <v>1769079.11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="6">
+        <v>14569.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D30" s="6">
+        <v>3331.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31" s="6">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="6">
+        <v>1443225.15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="6">
+        <v>1526135.04</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="6">
+        <v>191547.32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="6">
+        <v>139267.98000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="6">
+        <v>598068.05000000005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="6">
+        <v>31500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="6">
+        <v>98605.23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="6">
+        <v>18763.560000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="6">
+        <v>53567.41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="6">
+        <v>75926.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="6">
+        <v>95191.43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="6">
+        <v>133431.41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A44" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="6">
+        <v>10345.959999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A45" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="6">
+        <v>158620.07999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A46" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" s="6">
+        <v>2393.9299999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A47" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="6">
+        <v>3503.46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A48" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" s="6">
+        <v>14.49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A49" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C49" s="6">
+        <v>7327.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A50" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C50" s="6">
+        <v>5329.24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A51" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51" s="6">
+        <v>2277.33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A52" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" s="6">
+        <v>3925.94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A53" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" s="6">
+        <v>472.82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A54" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" s="6">
+        <v>12499.27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A55" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" s="6">
+        <v>58707.31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A56" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C56" s="6">
+        <v>1204.82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A57" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C57" s="6">
+        <v>14254.56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A58" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C58" s="6">
+        <v>11055.21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A59" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59" s="6">
+        <v>13885.02</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A60" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C60" s="6">
+        <v>1637.97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A61" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C61" s="6">
+        <v>6768.3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A62" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C62" s="6">
+        <v>1695.33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A63" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C63" s="6">
+        <v>149515.07999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A64" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C64" s="6">
+        <v>8032.53</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A65" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C65" s="6">
+        <v>9356.02</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A66" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C66" s="6">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A67" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C67" s="6">
+        <v>12569.75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A68" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C68" s="6">
+        <v>130.18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A69" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C69" s="6">
+        <v>43867.35</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A70" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C70" s="6">
+        <v>176750</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A71" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C71" s="6">
+        <v>56620.72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A72" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C72" s="6">
+        <v>10530</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A73" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C73" s="6">
+        <v>13210</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A74" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C74" s="6">
+        <v>90652.07</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A75" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C75" s="6">
+        <v>8731.09</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A76" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C76" s="6">
+        <v>2252.98</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A77" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D77" s="6">
+        <v>33990</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A78" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D78" s="6">
+        <v>34.75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A79" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C79" s="6">
+        <v>1858.11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A80" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C80" s="6">
+        <v>868.46</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A81" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C81" s="6">
+        <v>716.52</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+    </row>
+    <row r="83" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A83" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C83" s="5">
+        <v>8598579.7000000011</v>
+      </c>
+      <c r="D83" s="5">
+        <v>8598579.7000000011</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A84" s="11"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0107BBC-2C01-4333-A0E7-AA0212C27559}">
+  <dimension ref="A1:D86"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="11.65" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.73046875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.73046875" style="2" customWidth="1"/>
+    <col min="3" max="4" width="11.73046875" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9.1328125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="17">
-        <v>799700.97</v>
-      </c>
-      <c r="D2" s="13"/>
+      <c r="C2" s="6">
+        <v>1329638.3799999999</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="17">
-        <v>840.97</v>
-      </c>
-      <c r="D3" s="13"/>
+      <c r="C3" s="6">
+        <v>1198.1500000000001</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="6">
         <v>100</v>
       </c>
-      <c r="D4" s="13"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="17">
-        <v>1316834.43</v>
-      </c>
-      <c r="D5" s="13"/>
+      <c r="C5" s="6">
+        <v>942201.02</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="6">
         <v>13100</v>
       </c>
-      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="6">
         <v>111809.7</v>
       </c>
-      <c r="D7" s="13"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="6">
         <v>43496</v>
       </c>
-      <c r="D8" s="13"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="6">
         <v>253111.15</v>
       </c>
-      <c r="D9" s="13"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="17">
-        <v>331856.59999999998</v>
+      <c r="D10" s="6">
+        <v>332098.78999999998</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="6">
         <v>377</v>
       </c>
-      <c r="D11" s="13"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="17">
-        <v>215634.1</v>
+      <c r="D12" s="6">
+        <v>393362.46</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="17">
-        <v>143458.69</v>
+      <c r="C13" s="6">
+        <v>1652.24</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="17">
-        <v>31500</v>
+      <c r="D14" s="6">
+        <v>36000</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="17">
-        <v>86785.09</v>
+      <c r="D15" s="6">
+        <v>84777.35</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="17">
+      <c r="D16" s="6">
         <v>25701.71</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D17" s="6">
+        <v>552.66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B18" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="17">
-        <v>37000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="14" t="s">
+      <c r="D18" s="6">
+        <v>27500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="17">
+      <c r="D19" s="6">
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="14" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B20" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C20" s="6">
         <v>750000</v>
       </c>
-      <c r="D19" s="13"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="14" t="s">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B21" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="17">
+      <c r="D21" s="6">
         <v>162907.1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="14" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="17">
+      <c r="D22" s="6">
         <v>1369607.08</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="14" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="17">
-        <v>1277501.28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="14" t="s">
+      <c r="D23" s="6">
+        <v>1444880.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B24" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="17">
-        <v>822613.59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="14" t="s">
+      <c r="D24" s="6">
+        <v>939352.56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B25" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="17">
-        <v>138010.68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="14" t="s">
+      <c r="D25" s="6">
+        <v>173225.26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B26" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="17">
-        <v>213792.2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="14" t="s">
+      <c r="D26" s="6">
+        <v>240834.52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B27" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="17">
-        <v>8270</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="14" t="s">
+      <c r="D27" s="6">
+        <v>10795</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B28" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="17">
-        <v>1890936.52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="14" t="s">
+      <c r="D28" s="6">
+        <v>2059252.87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B29" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="17">
-        <v>1769079.11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="14" t="s">
+      <c r="D29" s="6">
+        <v>2016548.48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D30" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B31" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="17">
-        <v>14569.9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="14" t="s">
+      <c r="D31" s="6">
+        <v>17104.57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B32" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="17">
+      <c r="D32" s="6">
         <v>3331.3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="14" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B33" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="17">
+      <c r="D33" s="6">
         <v>21000</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="14" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B34" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="17">
-        <v>1443225.15</v>
-      </c>
-      <c r="D32" s="13"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="14" t="s">
+      <c r="C34" s="6">
+        <v>1644982.92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B35" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="17">
-        <v>1526135.04</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="14" t="s">
+      <c r="C35" s="6">
+        <v>1652891.31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B36" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="17">
-        <v>191547.32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="14" t="s">
+      <c r="C36" s="6">
+        <v>241606.11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B37" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="17">
-        <v>139267.98000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="14" t="s">
+      <c r="C37" s="6">
+        <v>162399.94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B38" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="17">
-        <v>598068.05000000005</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="14" t="s">
+      <c r="C38" s="6">
+        <v>658079.84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B39" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="17">
-        <v>31500</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="14" t="s">
+      <c r="C39" s="6">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B40" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="17">
-        <v>98605.23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="14" t="s">
+      <c r="C40" s="6">
+        <v>109588.52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B41" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="17">
-        <v>18763.560000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="14" t="s">
+      <c r="C41" s="6">
+        <v>21961.919999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B42" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="17">
-        <v>53567.41</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="14" t="s">
+      <c r="C42" s="6">
+        <v>60457.58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B43" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="17">
+      <c r="C43" s="6">
         <v>75926.8</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="14" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B44" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C42" s="17">
-        <v>95191.43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="14" t="s">
+      <c r="C44" s="6">
+        <v>110332.12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B45" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C43" s="17">
-        <v>133431.41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="14" t="s">
+      <c r="C45" s="6">
+        <v>151244.69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B46" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C44" s="17">
-        <v>10345.959999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="14" t="s">
+      <c r="C46" s="6">
+        <v>11768.79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B47" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C45" s="17">
-        <v>158620.07999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="14" t="s">
+      <c r="C47" s="6">
+        <v>180300.68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B48" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C46" s="17">
+      <c r="C48" s="6">
         <v>2393.9299999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="14" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B49" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C47" s="17">
-        <v>3503.46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="14" t="s">
+      <c r="C49" s="6">
+        <v>3550.87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B50" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="17">
-        <v>14.49</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="14" t="s">
+      <c r="C50" s="6">
+        <v>33.33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B51" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C49" s="17">
+      <c r="C51" s="6">
         <v>7327.2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="14" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B52" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C50" s="17">
+      <c r="C52" s="6">
         <v>5329.24</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="14" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B53" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C51" s="17">
+      <c r="C53" s="6">
         <v>2277.33</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="14" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B54" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C52" s="17">
-        <v>3925.94</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="14" t="s">
+      <c r="C54" s="6">
+        <v>4508.54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B55" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C53" s="17">
+      <c r="C55" s="6">
         <v>472.82</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="14" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B56" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C54" s="17">
-        <v>12499.27</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="14" t="s">
+      <c r="C56" s="6">
+        <v>18530.03</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B57" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C55" s="17">
+      <c r="C57" s="6">
         <v>58707.31</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="14" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="B58" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C56" s="17">
-        <v>1204.82</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="14" t="s">
+      <c r="C58" s="6">
+        <v>1258.03</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B59" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C57" s="17">
-        <v>14254.56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="14" t="s">
+      <c r="C59" s="6">
+        <v>14455.95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B60" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C58" s="17">
-        <v>11055.21</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="14" t="s">
+      <c r="C60" s="6">
+        <v>11992.72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B61" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C59" s="17">
-        <v>13885.02</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="14" t="s">
+      <c r="C61" s="6">
+        <v>15840.55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B62" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C60" s="17">
-        <v>1637.97</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="14" t="s">
+      <c r="C62" s="6">
+        <v>2448.77</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B63" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C61" s="17">
-        <v>6768.3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="14" t="s">
+      <c r="C63" s="6">
+        <v>7487.34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="B64" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C62" s="17">
-        <v>1695.33</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="14" t="s">
+      <c r="C64" s="6">
+        <v>1937.52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B65" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C63" s="17">
-        <v>149515.07999999999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="14" t="s">
+      <c r="C65" s="6">
+        <v>171701.81</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B64" s="14" t="s">
+      <c r="B66" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C64" s="17">
-        <v>8032.53</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="14" t="s">
+      <c r="C66" s="6">
+        <v>9034.93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B65" s="14" t="s">
+      <c r="B67" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C65" s="17">
-        <v>9356.02</v>
-      </c>
-      <c r="D65" s="13"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="14" t="s">
+      <c r="C67" s="6">
+        <v>10266.98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="B68" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C66" s="17">
-        <v>2401</v>
-      </c>
-      <c r="D66" s="13"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="14" t="s">
+      <c r="C68" s="6">
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B67" s="14" t="s">
+      <c r="B69" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C67" s="17">
+      <c r="C69" s="6">
         <v>12569.75</v>
       </c>
-      <c r="D67" s="13"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="14" t="s">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B70" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C68" s="17">
+      <c r="C70" s="6">
         <v>130.18</v>
       </c>
-      <c r="D68" s="13"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="14" t="s">
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B69" s="14" t="s">
+      <c r="B71" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C69" s="17">
-        <v>43867.35</v>
-      </c>
-      <c r="D69" s="13"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" s="14" t="s">
+      <c r="C71" s="6">
+        <v>45297.24</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B70" s="14" t="s">
+      <c r="B72" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C70" s="17">
-        <v>176750</v>
-      </c>
-      <c r="D70" s="13"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="14" t="s">
+      <c r="C72" s="6">
+        <v>202000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B71" s="14" t="s">
+      <c r="B73" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C71" s="17">
-        <v>56620.72</v>
-      </c>
-      <c r="D71" s="13"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="14" t="s">
+      <c r="C73" s="6">
+        <v>65863.570000000007</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B72" s="14" t="s">
+      <c r="B74" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C72" s="17">
-        <v>10530</v>
-      </c>
-      <c r="D72" s="13"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" s="14" t="s">
+      <c r="C74" s="6">
+        <v>21030</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B73" s="14" t="s">
+      <c r="B75" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C73" s="17">
+      <c r="C75" s="6">
         <v>13210</v>
       </c>
-      <c r="D73" s="13"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="14" t="s">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B74" s="14" t="s">
+      <c r="B76" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C74" s="17">
-        <v>90652.07</v>
-      </c>
-      <c r="D74" s="13"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" s="14" t="s">
+      <c r="C76" s="6">
+        <v>101652.07</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B75" s="14" t="s">
+      <c r="B77" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C75" s="17">
-        <v>8731.09</v>
-      </c>
-      <c r="D75" s="13"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" s="14" t="s">
+      <c r="C77" s="6">
+        <v>9825.7099999999991</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B76" s="14" t="s">
+      <c r="B78" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C76" s="17">
-        <v>2252.98</v>
-      </c>
-      <c r="D76" s="13"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="14" t="s">
+      <c r="C78" s="6">
+        <v>2312.98</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B77" s="14" t="s">
+      <c r="B79" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C77" s="13"/>
-      <c r="D77" s="17">
+      <c r="D79" s="6">
         <v>33990</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" s="14" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B78" s="14" t="s">
+      <c r="B80" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C78" s="13"/>
-      <c r="D78" s="17">
+      <c r="D80" s="6">
         <v>34.75</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" s="14" t="s">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B79" s="14" t="s">
+      <c r="B81" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C79" s="17">
+      <c r="C81" s="6">
         <v>1858.11</v>
       </c>
-      <c r="D79" s="13"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" s="14" t="s">
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B80" s="14" t="s">
+      <c r="B82" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C80" s="17">
+      <c r="C82" s="6">
         <v>868.46</v>
       </c>
-      <c r="D80" s="13"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" s="14" t="s">
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B81" s="14" t="s">
+      <c r="B83" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C81" s="17">
-        <v>716.52</v>
-      </c>
-      <c r="D81" s="13"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" s="13"/>
-      <c r="B82" s="13"/>
-      <c r="C82" s="20"/>
-      <c r="D82" s="20"/>
-    </row>
-    <row r="83" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="15" t="s">
+      <c r="C83" s="6">
+        <v>966.93</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+    </row>
+    <row r="85" spans="1:4" s="4" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B83" s="15" t="s">
+      <c r="B85" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C83" s="16">
-        <v>8598579.7000000011</v>
-      </c>
-      <c r="D83" s="16">
-        <v>8598579.7000000011</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="21"/>
-      <c r="B84" s="21"/>
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
+      <c r="C85" s="5">
+        <f>SUBTOTAL(9, C2:C84)</f>
+        <v>9394157.0600000005</v>
+      </c>
+      <c r="D85" s="5">
+        <f>SUBTOTAL(9, D2:D84)</f>
+        <v>9394157.0600000005</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A86" s="11"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/trial_balances/HazTrain TB.2023 by month GENAESIS Confidential.xlsx
+++ b/documents/trial_balances/HazTrain TB.2023 by month GENAESIS Confidential.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Finance-Model\documents\trial_balances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C55C5F-783B-4DC7-B8EA-45773B68E6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3264B865-DFB7-41B6-995F-AFC821F49B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37380" yWindow="670" windowWidth="35140" windowHeight="17740" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2490" yWindow="880" windowWidth="31740" windowHeight="19430" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jan 2023 Trial Balance" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="May 2023 Trial Balance" sheetId="5" r:id="rId5"/>
     <sheet name="June 2023 Trial Balance" sheetId="6" r:id="rId6"/>
     <sheet name="July 2023 Trial Balance" sheetId="7" r:id="rId7"/>
+    <sheet name="August 2023 Trial Balance" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'April 2023 Trial Balance'!$1:$1</definedName>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="172">
   <si>
     <t>Account ID</t>
   </si>
@@ -553,6 +554,18 @@
   </si>
   <si>
     <t>Deferred Income</t>
+  </si>
+  <si>
+    <t>22550</t>
+  </si>
+  <si>
+    <t>AFLAC Insurance</t>
+  </si>
+  <si>
+    <t>31000</t>
+  </si>
+  <si>
+    <t>WACO/LOCAL PRIVATE</t>
   </si>
 </sst>
 </file>
@@ -644,7 +657,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -674,12 +687,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -689,9 +696,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6278,7 +6282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4CBAA2B-1871-43B7-B6FB-A384545E3E17}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="L74" sqref="L74"/>
     </sheetView>
   </sheetViews>
@@ -6288,16 +6292,953 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6">
+        <v>799700.97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6">
+        <v>840.97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1316834.43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="6">
+        <v>13100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="6">
+        <v>111809.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="6">
+        <v>43496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="6">
+        <v>253111.15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="6">
+        <v>331856.59999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="6">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="6">
+        <v>215634.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="6">
+        <v>143458.69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="6">
+        <v>31500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="6">
+        <v>86785.09</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="6">
+        <v>25701.71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D17" s="6">
+        <v>37000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" s="6">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="6">
+        <v>162907.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="6">
+        <v>1369607.08</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="6">
+        <v>1277501.28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="6">
+        <v>822613.59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="6">
+        <v>138010.68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="6">
+        <v>213792.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="6">
+        <v>8270</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="6">
+        <v>1890936.52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="6">
+        <v>1769079.11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="6">
+        <v>14569.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D30" s="6">
+        <v>3331.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31" s="6">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="6">
+        <v>1443225.15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="6">
+        <v>1526135.04</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="6">
+        <v>191547.32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="6">
+        <v>139267.98000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="6">
+        <v>598068.05000000005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="6">
+        <v>31500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="6">
+        <v>98605.23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="6">
+        <v>18763.560000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="6">
+        <v>53567.41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="6">
+        <v>75926.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="6">
+        <v>95191.43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="6">
+        <v>133431.41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="6">
+        <v>10345.959999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="6">
+        <v>158620.07999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" s="6">
+        <v>2393.9299999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="6">
+        <v>3503.46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" s="6">
+        <v>14.49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C49" s="6">
+        <v>7327.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C50" s="6">
+        <v>5329.24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51" s="6">
+        <v>2277.33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" s="6">
+        <v>3925.94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" s="6">
+        <v>472.82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" s="6">
+        <v>12499.27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" s="6">
+        <v>58707.31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C56" s="6">
+        <v>1204.82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C57" s="6">
+        <v>14254.56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C58" s="6">
+        <v>11055.21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59" s="6">
+        <v>13885.02</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C60" s="6">
+        <v>1637.97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C61" s="6">
+        <v>6768.3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C62" s="6">
+        <v>1695.33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C63" s="6">
+        <v>149515.07999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C64" s="6">
+        <v>8032.53</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C65" s="6">
+        <v>9356.02</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C66" s="6">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C67" s="6">
+        <v>12569.75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C68" s="6">
+        <v>130.18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C69" s="6">
+        <v>43867.35</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C70" s="6">
+        <v>176750</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C71" s="6">
+        <v>56620.72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C72" s="6">
+        <v>10530</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C73" s="6">
+        <v>13210</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C74" s="6">
+        <v>90652.07</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C75" s="6">
+        <v>8731.09</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C76" s="6">
+        <v>2252.98</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D77" s="6">
+        <v>33990</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D78" s="6">
+        <v>34.75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C79" s="6">
+        <v>1858.11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C80" s="6">
+        <v>868.46</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C81" s="6">
+        <v>716.52</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+    </row>
+    <row r="83" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C83" s="5">
+        <v>8598579.7000000011</v>
+      </c>
+      <c r="D83" s="5">
+        <v>8598579.7000000011</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="11"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA914042-3D23-4E30-B0B5-97E4E763059E}">
+  <dimension ref="A1:D83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="25.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6308,8 +7249,8 @@
       <c r="B2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="17">
-        <v>799700.97</v>
+      <c r="C2" s="15">
+        <v>1329638.3799999999</v>
       </c>
       <c r="D2" s="13"/>
     </row>
@@ -6320,8 +7261,8 @@
       <c r="B3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="17">
-        <v>840.97</v>
+      <c r="C3" s="15">
+        <v>1198.1500000000001</v>
       </c>
       <c r="D3" s="13"/>
     </row>
@@ -6332,7 +7273,7 @@
       <c r="B4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="15">
         <v>100</v>
       </c>
       <c r="D4" s="13"/>
@@ -6344,8 +7285,8 @@
       <c r="B5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="17">
-        <v>1316834.43</v>
+      <c r="C5" s="15">
+        <v>942201.02</v>
       </c>
       <c r="D5" s="13"/>
     </row>
@@ -6356,7 +7297,7 @@
       <c r="B6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="15">
         <v>13100</v>
       </c>
       <c r="D6" s="13"/>
@@ -6368,7 +7309,7 @@
       <c r="B7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="15">
         <v>111809.7</v>
       </c>
       <c r="D7" s="13"/>
@@ -6380,7 +7321,7 @@
       <c r="B8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="15">
         <v>43496</v>
       </c>
       <c r="D8" s="13"/>
@@ -6392,7 +7333,7 @@
       <c r="B9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="15">
         <v>253111.15</v>
       </c>
       <c r="D9" s="13"/>
@@ -6405,8 +7346,8 @@
         <v>21</v>
       </c>
       <c r="C10" s="13"/>
-      <c r="D10" s="17">
-        <v>331856.59999999998</v>
+      <c r="D10" s="15">
+        <v>332098.78999999998</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -6416,7 +7357,7 @@
       <c r="B11" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="15">
         <v>377</v>
       </c>
       <c r="D11" s="13"/>
@@ -6429,8 +7370,8 @@
         <v>25</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="17">
-        <v>215634.1</v>
+      <c r="D12" s="15">
+        <v>393362.46</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -6440,10 +7381,10 @@
       <c r="B13" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="17">
-        <v>143458.69</v>
-      </c>
+      <c r="C13" s="15">
+        <v>1652.24</v>
+      </c>
+      <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
@@ -6453,8 +7394,8 @@
         <v>29</v>
       </c>
       <c r="C14" s="13"/>
-      <c r="D14" s="17">
-        <v>31500</v>
+      <c r="D14" s="15">
+        <v>36000</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -6465,8 +7406,8 @@
         <v>33</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="17">
-        <v>86785.09</v>
+      <c r="D15" s="15">
+        <v>84777.35</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -6477,783 +7418,797 @@
         <v>35</v>
       </c>
       <c r="C16" s="13"/>
-      <c r="D16" s="17">
+      <c r="D16" s="15">
         <v>25701.71</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="17">
-        <v>37000</v>
+      <c r="D17" s="15">
+        <v>552.66</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
-        <v>36</v>
+        <v>166</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>37</v>
+        <v>167</v>
       </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="17">
-        <v>1000</v>
+      <c r="D18" s="15">
+        <v>27500</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
-        <v>160</v>
+        <v>36</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="C19" s="17">
-        <v>750000</v>
-      </c>
-      <c r="D19" s="13"/>
+        <v>37</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="15">
+        <v>1000</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="s">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="17">
-        <v>162907.1</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="C20" s="15">
+        <v>750000</v>
+      </c>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C21" s="13"/>
-      <c r="D21" s="17">
-        <v>1369607.08</v>
+      <c r="D21" s="15">
+        <v>162907.1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C22" s="13"/>
-      <c r="D22" s="17">
-        <v>1277501.28</v>
+      <c r="D22" s="15">
+        <v>1369607.08</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C23" s="13"/>
-      <c r="D23" s="17">
-        <v>822613.59</v>
+      <c r="D23" s="15">
+        <v>1444880.6</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C24" s="13"/>
-      <c r="D24" s="17">
-        <v>138010.68</v>
+      <c r="D24" s="15">
+        <v>939352.56</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="17">
-        <v>213792.2</v>
+      <c r="D25" s="15">
+        <v>173225.26</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="17">
-        <v>8270</v>
+      <c r="D26" s="15">
+        <v>240834.52</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C27" s="13"/>
-      <c r="D27" s="17">
-        <v>1890936.52</v>
+      <c r="D27" s="15">
+        <v>10795</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C28" s="13"/>
-      <c r="D28" s="17">
-        <v>1769079.11</v>
+      <c r="D28" s="15">
+        <v>2059252.87</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="17">
-        <v>14569.9</v>
+      <c r="D29" s="15">
+        <v>2016548.48</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="14" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="C30" s="13"/>
-      <c r="D30" s="17">
-        <v>3331.3</v>
+      <c r="D30" s="15">
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="14" t="s">
-        <v>156</v>
+        <v>56</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>157</v>
+        <v>57</v>
       </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="17">
-        <v>21000</v>
+      <c r="D31" s="15">
+        <v>17104.57</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="15">
+        <v>3331.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="15">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B34" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="17">
-        <v>1443225.15</v>
-      </c>
-      <c r="D32" s="13"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="14" t="s">
+      <c r="C34" s="15">
+        <v>1644982.92</v>
+      </c>
+      <c r="D34" s="13"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B35" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="17">
-        <v>1526135.04</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="14" t="s">
+      <c r="C35" s="15">
+        <v>1652891.31</v>
+      </c>
+      <c r="D35" s="13"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B36" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="17">
-        <v>191547.32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="14" t="s">
+      <c r="C36" s="15">
+        <v>241606.11</v>
+      </c>
+      <c r="D36" s="13"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B37" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="17">
-        <v>139267.98000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="14" t="s">
+      <c r="C37" s="15">
+        <v>162399.94</v>
+      </c>
+      <c r="D37" s="13"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B38" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="17">
-        <v>598068.05000000005</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="14" t="s">
+      <c r="C38" s="15">
+        <v>658079.84</v>
+      </c>
+      <c r="D38" s="13"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B39" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="17">
-        <v>31500</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="14" t="s">
+      <c r="C39" s="15">
+        <v>36000</v>
+      </c>
+      <c r="D39" s="13"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B40" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="17">
-        <v>98605.23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="14" t="s">
+      <c r="C40" s="15">
+        <v>109588.52</v>
+      </c>
+      <c r="D40" s="13"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B41" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="17">
-        <v>18763.560000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="14" t="s">
+      <c r="C41" s="15">
+        <v>21961.919999999998</v>
+      </c>
+      <c r="D41" s="13"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B42" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="17">
-        <v>53567.41</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="14" t="s">
+      <c r="C42" s="15">
+        <v>60457.58</v>
+      </c>
+      <c r="D42" s="13"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B43" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="17">
+      <c r="C43" s="15">
         <v>75926.8</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="14" t="s">
+      <c r="D43" s="13"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B44" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C42" s="17">
-        <v>95191.43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="14" t="s">
+      <c r="C44" s="15">
+        <v>110332.12</v>
+      </c>
+      <c r="D44" s="13"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B45" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C43" s="17">
-        <v>133431.41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="14" t="s">
+      <c r="C45" s="15">
+        <v>151244.69</v>
+      </c>
+      <c r="D45" s="13"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B46" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C44" s="17">
-        <v>10345.959999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="14" t="s">
+      <c r="C46" s="15">
+        <v>11768.79</v>
+      </c>
+      <c r="D46" s="13"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B47" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C45" s="17">
-        <v>158620.07999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="14" t="s">
+      <c r="C47" s="15">
+        <v>180300.68</v>
+      </c>
+      <c r="D47" s="13"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B48" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C46" s="17">
+      <c r="C48" s="15">
         <v>2393.9299999999998</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C47" s="17">
-        <v>3503.46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C48" s="17">
-        <v>14.49</v>
-      </c>
+      <c r="D48" s="13"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="14" t="s">
-        <v>162</v>
+        <v>88</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="C49" s="17">
-        <v>7327.2</v>
+        <v>89</v>
+      </c>
+      <c r="C49" s="15">
+        <v>3550.87</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="14" t="s">
-        <v>148</v>
+        <v>90</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="C50" s="17">
-        <v>5329.24</v>
+        <v>91</v>
+      </c>
+      <c r="C50" s="15">
+        <v>33.33</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="14" t="s">
-        <v>92</v>
+        <v>162</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C51" s="17">
-        <v>2277.33</v>
+        <v>163</v>
+      </c>
+      <c r="C51" s="15">
+        <v>7327.2</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="14" t="s">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C52" s="17">
-        <v>3925.94</v>
+        <v>149</v>
+      </c>
+      <c r="C52" s="15">
+        <v>5329.24</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C53" s="17">
-        <v>472.82</v>
+        <v>93</v>
+      </c>
+      <c r="C53" s="15">
+        <v>2277.33</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="14" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C54" s="17">
-        <v>12499.27</v>
+        <v>95</v>
+      </c>
+      <c r="C54" s="15">
+        <v>4508.54</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C55" s="17">
-        <v>58707.31</v>
+        <v>97</v>
+      </c>
+      <c r="C55" s="15">
+        <v>472.82</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C56" s="17">
-        <v>1204.82</v>
+        <v>99</v>
+      </c>
+      <c r="C56" s="15">
+        <v>18530.03</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="14" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="C57" s="17">
-        <v>14254.56</v>
+        <v>101</v>
+      </c>
+      <c r="C57" s="15">
+        <v>58707.31</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C58" s="17">
-        <v>11055.21</v>
+        <v>103</v>
+      </c>
+      <c r="C58" s="15">
+        <v>1258.03</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="14" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="C59" s="17">
-        <v>13885.02</v>
+        <v>105</v>
+      </c>
+      <c r="C59" s="15">
+        <v>14455.95</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="14" t="s">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="C60" s="17">
-        <v>1637.97</v>
+        <v>107</v>
+      </c>
+      <c r="C60" s="15">
+        <v>11992.72</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C61" s="17">
-        <v>6768.3</v>
+        <v>109</v>
+      </c>
+      <c r="C61" s="15">
+        <v>15840.55</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="14" t="s">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="C62" s="17">
-        <v>1695.33</v>
+        <v>151</v>
+      </c>
+      <c r="C62" s="15">
+        <v>2448.77</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="14" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="C63" s="17">
-        <v>149515.07999999999</v>
+        <v>111</v>
+      </c>
+      <c r="C63" s="15">
+        <v>7487.34</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="14" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="C64" s="17">
-        <v>8032.53</v>
+        <v>113</v>
+      </c>
+      <c r="C64" s="15">
+        <v>1937.52</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="14" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C65" s="17">
-        <v>9356.02</v>
+        <v>115</v>
+      </c>
+      <c r="C65" s="15">
+        <v>171701.81</v>
       </c>
       <c r="D65" s="13"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="14" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="C66" s="17">
-        <v>2401</v>
+        <v>117</v>
+      </c>
+      <c r="C66" s="15">
+        <v>9034.93</v>
       </c>
       <c r="D66" s="13"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="14" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="C67" s="17">
-        <v>12569.75</v>
+        <v>119</v>
+      </c>
+      <c r="C67" s="15">
+        <v>10266.98</v>
       </c>
       <c r="D67" s="13"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="14" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="C68" s="17">
-        <v>130.18</v>
+        <v>121</v>
+      </c>
+      <c r="C68" s="15">
+        <v>2792</v>
       </c>
       <c r="D68" s="13"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="C69" s="17">
-        <v>43867.35</v>
+        <v>123</v>
+      </c>
+      <c r="C69" s="15">
+        <v>12569.75</v>
       </c>
       <c r="D69" s="13"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="14" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="C70" s="17">
-        <v>176750</v>
+        <v>153</v>
+      </c>
+      <c r="C70" s="15">
+        <v>130.18</v>
       </c>
       <c r="D70" s="13"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="14" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="C71" s="17">
-        <v>56620.72</v>
+        <v>125</v>
+      </c>
+      <c r="C71" s="15">
+        <v>45297.24</v>
       </c>
       <c r="D71" s="13"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="14" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="C72" s="17">
-        <v>10530</v>
+        <v>127</v>
+      </c>
+      <c r="C72" s="15">
+        <v>202000</v>
       </c>
       <c r="D72" s="13"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="C73" s="17">
-        <v>13210</v>
+        <v>129</v>
+      </c>
+      <c r="C73" s="15">
+        <v>65863.570000000007</v>
       </c>
       <c r="D73" s="13"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="14" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="C74" s="17">
-        <v>90652.07</v>
+        <v>141</v>
+      </c>
+      <c r="C74" s="15">
+        <v>21030</v>
       </c>
       <c r="D74" s="13"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="14" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="C75" s="17">
-        <v>8731.09</v>
+        <v>131</v>
+      </c>
+      <c r="C75" s="15">
+        <v>13210</v>
       </c>
       <c r="D75" s="13"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="14" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="C76" s="17">
-        <v>2252.98</v>
+        <v>133</v>
+      </c>
+      <c r="C76" s="15">
+        <v>101652.07</v>
       </c>
       <c r="D76" s="13"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="14" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="C77" s="13"/>
-      <c r="D77" s="17">
-        <v>33990</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="C77" s="15">
+        <v>9825.7099999999991</v>
+      </c>
+      <c r="D77" s="13"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="14" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="C78" s="13"/>
-      <c r="D78" s="17">
-        <v>34.75</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="C78" s="15">
+        <v>2312.98</v>
+      </c>
+      <c r="D78" s="13"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="14" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C79" s="17">
-        <v>1858.11</v>
-      </c>
-      <c r="D79" s="13"/>
+        <v>155</v>
+      </c>
+      <c r="C79" s="13"/>
+      <c r="D79" s="15">
+        <v>33990</v>
+      </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="14" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="C80" s="17">
-        <v>868.46</v>
-      </c>
-      <c r="D80" s="13"/>
+        <v>165</v>
+      </c>
+      <c r="C80" s="13"/>
+      <c r="D80" s="15">
+        <v>34.75</v>
+      </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C81" s="15">
+        <v>1858.11</v>
+      </c>
+      <c r="D81" s="13"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C82" s="15">
+        <v>868.46</v>
+      </c>
+      <c r="D82" s="13"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="B81" s="14" t="s">
+      <c r="B83" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="C81" s="17">
-        <v>716.52</v>
-      </c>
-      <c r="D81" s="13"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" s="13"/>
-      <c r="B82" s="13"/>
-      <c r="C82" s="20"/>
-      <c r="D82" s="20"/>
-    </row>
-    <row r="83" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B83" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="C83" s="16">
-        <v>8598579.7000000011</v>
-      </c>
-      <c r="D83" s="16">
-        <v>8598579.7000000011</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="21"/>
-      <c r="B84" s="21"/>
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
+      <c r="C83" s="15">
+        <v>966.93</v>
+      </c>
+      <c r="D83" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
